--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513586924491051</v>
+        <v>2.513586924491165</v>
       </c>
       <c r="C2">
-        <v>0.6136558822702796</v>
+        <v>0.613655882270308</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1984609199948082</v>
+        <v>0.1984609199948153</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.500063339537391</v>
+        <v>2.500063339537363</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9773267156569361</v>
+        <v>0.9773267156569432</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.160962830838287</v>
+        <v>2.160962830838173</v>
       </c>
       <c r="C3">
-        <v>0.5293714833081253</v>
+        <v>0.5293714833080969</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.207672709545278</v>
+        <v>2.207672709545264</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8393327193511197</v>
+        <v>0.8393327193511269</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948363965095268</v>
+        <v>1.948363965095183</v>
       </c>
       <c r="C4">
-        <v>0.4785010340793008</v>
+        <v>0.4785010340791018</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1564744065108599</v>
+        <v>0.156474406510803</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.034276266783067</v>
+        <v>2.034276266783053</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7564170359874964</v>
+        <v>0.7564170359874822</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862555126773032</v>
+        <v>1.862555126773202</v>
       </c>
       <c r="C5">
-        <v>0.4579516662298033</v>
+        <v>0.4579516662296044</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1501897644957495</v>
+        <v>0.1501897644957637</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.964956672946187</v>
+        <v>1.964956672946172</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.723014432923911</v>
+        <v>0.7230144329239252</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.848352291146625</v>
+        <v>1.848352291146654</v>
       </c>
       <c r="C6">
         <v>0.4545492711817758</v>
@@ -573,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1491520158255639</v>
+        <v>0.1491520158255426</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.953521683581897</v>
+        <v>1.953521683581869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7174893808113936</v>
+        <v>0.7174893808114078</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94720356482037</v>
+        <v>1.947203564820569</v>
       </c>
       <c r="C7">
-        <v>0.4782232167820553</v>
+        <v>0.4782232167820268</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1563892504300881</v>
+        <v>0.1563892504300952</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>2.033336220916311</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7559650799319826</v>
+        <v>0.7559650799319755</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.391089761275623</v>
+        <v>2.39108976127568</v>
       </c>
       <c r="C8">
-        <v>0.5843859260449449</v>
+        <v>0.5843859260451438</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1892795602360948</v>
+        <v>0.1892795602361588</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.397846535734885</v>
+        <v>2.397846535734914</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9293256723205587</v>
+        <v>0.9293256723205658</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.300720506639095</v>
+        <v>3.300720506639323</v>
       </c>
       <c r="C9">
-        <v>0.8016692419006972</v>
+        <v>0.8016692419006688</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2584191084781935</v>
+        <v>0.2584191084781224</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.171617212201497</v>
+        <v>3.171617212201525</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.287272101454363</v>
+        <v>1.287272101454377</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.006116258013776</v>
+        <v>4.00611625801389</v>
       </c>
       <c r="C10">
-        <v>0.970317203959155</v>
+        <v>0.9703172039588992</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3134276365992648</v>
+        <v>0.3134276365992932</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>3.792715191012661</v>
+        <v>3.79271519101269</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.56708311986101</v>
+        <v>1.567083119861067</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.338680788698639</v>
+        <v>4.338680788698753</v>
       </c>
       <c r="C11">
-        <v>1.049951943980972</v>
+        <v>1.049951943981057</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3397450720299631</v>
+        <v>0.3397450720299133</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.699634817335095</v>
+        <v>1.699634817335081</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.466659964562552</v>
+        <v>4.466659964562496</v>
       </c>
       <c r="C12">
-        <v>1.080624919820252</v>
+        <v>1.080624919820082</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3499354003862791</v>
+        <v>0.3499354003863289</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.7507491306106</v>
+        <v>1.750749130610572</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.438999907374296</v>
+        <v>4.438999907374466</v>
       </c>
       <c r="C13">
         <v>1.07399419348863</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3477300577287892</v>
+        <v>0.347730057728775</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>4.181940321743014</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.739696919266066</v>
+        <v>1.73969691926608</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.349166413922944</v>
+        <v>4.349166413923058</v>
       </c>
       <c r="C14">
-        <v>1.052464439975807</v>
+        <v>1.052464439975978</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.340578691841138</v>
+        <v>0.3405786918412232</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.100686444682538</v>
+        <v>4.100686444682509</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.703820547026169</v>
+        <v>1.703820547026197</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.294418988540428</v>
+        <v>4.294418988540372</v>
       </c>
       <c r="C15">
-        <v>1.03934739207287</v>
+        <v>1.039347392072841</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3362287699563993</v>
+        <v>0.336228769956378</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.051289644508188</v>
+        <v>4.051289644508245</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.68197036935193</v>
+        <v>1.681970369351959</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3117368950411645</v>
+        <v>0.3117368950411432</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.558539749534049</v>
+        <v>1.55853974953402</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797842778212555</v>
+        <v>3.797842778212441</v>
       </c>
       <c r="C17">
-        <v>0.9204907913532452</v>
+        <v>0.9204907913527904</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2970685431309619</v>
+        <v>0.2970685431309406</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.607581052715062</v>
+        <v>3.607581052715034</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.484274365443142</v>
+        <v>1.48427436544317</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.691471632187927</v>
+        <v>3.691471632188041</v>
       </c>
       <c r="C18">
         <v>0.8950546828522192</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.28875080615461</v>
+        <v>0.2887508061546313</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>3.513581824370249</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.442043086155678</v>
+        <v>1.442043086155664</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.655630509591333</v>
+        <v>3.655630509591276</v>
       </c>
       <c r="C19">
-        <v>0.8864857328853475</v>
+        <v>0.8864857328853759</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2859539587799844</v>
+        <v>0.2859539587800626</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>3.48199523817658</v>
+        <v>3.481995238176523</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.427822963226788</v>
+        <v>1.427822963226802</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.817614846548281</v>
+        <v>3.817614846548395</v>
       </c>
       <c r="C20">
-        <v>0.9252196289843369</v>
+        <v>0.92521962898428</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.298617430009763</v>
+        <v>0.2986174300096778</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.375493967250065</v>
+        <v>4.37549396725035</v>
       </c>
       <c r="C21">
-        <v>1.058773347039647</v>
+        <v>1.058773347040244</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3426727870711943</v>
+        <v>0.3426727870711588</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.12447389472419</v>
+        <v>4.124473894724161</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>4.752236165272109</v>
       </c>
       <c r="C22">
-        <v>1.149131743668761</v>
+        <v>1.149131743668818</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.467171002907094</v>
+        <v>4.467171002907065</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.549912444143843</v>
+        <v>4.549912444143956</v>
       </c>
       <c r="C23">
-        <v>1.100587177053228</v>
+        <v>1.1005871770532</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3565827763838101</v>
+        <v>0.356582776383803</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>4.282599563365324</v>
+        <v>4.28259956336538</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.80867272800316</v>
+        <v>3.808672728002875</v>
       </c>
       <c r="C24">
-        <v>0.9230809311265205</v>
+        <v>0.9230809311266057</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2979168219370791</v>
+        <v>0.2979168219370081</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>3.617172601246352</v>
+        <v>3.617172601246239</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>3.04920236016153</v>
       </c>
       <c r="C25">
-        <v>0.7415892310383754</v>
+        <v>0.7415892310381196</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2390878882297045</v>
+        <v>0.2390878882297471</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.954404431538478</v>
+        <v>2.954404431538464</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.187960240873323</v>
+        <v>1.187960240873309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513586924491165</v>
+        <v>2.513586924491051</v>
       </c>
       <c r="C2">
-        <v>0.613655882270308</v>
+        <v>0.6136558822702796</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1984609199948153</v>
+        <v>0.1984609199948082</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.500063339537363</v>
+        <v>2.500063339537391</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9773267156569432</v>
+        <v>0.9773267156569361</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.160962830838173</v>
+        <v>2.160962830838287</v>
       </c>
       <c r="C3">
-        <v>0.5293714833080969</v>
+        <v>0.5293714833081253</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.207672709545264</v>
+        <v>2.207672709545278</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8393327193511269</v>
+        <v>0.8393327193511197</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948363965095183</v>
+        <v>1.948363965095268</v>
       </c>
       <c r="C4">
-        <v>0.4785010340791018</v>
+        <v>0.4785010340793008</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.156474406510803</v>
+        <v>0.1564744065108599</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.034276266783053</v>
+        <v>2.034276266783067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7564170359874822</v>
+        <v>0.7564170359874964</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862555126773202</v>
+        <v>1.862555126773032</v>
       </c>
       <c r="C5">
-        <v>0.4579516662296044</v>
+        <v>0.4579516662298033</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1501897644957637</v>
+        <v>0.1501897644957495</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.964956672946172</v>
+        <v>1.964956672946187</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7230144329239252</v>
+        <v>0.723014432923911</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.848352291146654</v>
+        <v>1.848352291146625</v>
       </c>
       <c r="C6">
         <v>0.4545492711817758</v>
@@ -573,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1491520158255426</v>
+        <v>0.1491520158255639</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.953521683581869</v>
+        <v>1.953521683581897</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7174893808114078</v>
+        <v>0.7174893808113936</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947203564820569</v>
+        <v>1.94720356482037</v>
       </c>
       <c r="C7">
-        <v>0.4782232167820268</v>
+        <v>0.4782232167820553</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1563892504300952</v>
+        <v>0.1563892504300881</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>2.033336220916311</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7559650799319755</v>
+        <v>0.7559650799319826</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.39108976127568</v>
+        <v>2.391089761275623</v>
       </c>
       <c r="C8">
-        <v>0.5843859260451438</v>
+        <v>0.5843859260449449</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1892795602361588</v>
+        <v>0.1892795602360948</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.397846535734914</v>
+        <v>2.397846535734885</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9293256723205658</v>
+        <v>0.9293256723205587</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.300720506639323</v>
+        <v>3.300720506639095</v>
       </c>
       <c r="C9">
-        <v>0.8016692419006688</v>
+        <v>0.8016692419006972</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2584191084781224</v>
+        <v>0.2584191084781935</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.171617212201525</v>
+        <v>3.171617212201497</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.287272101454377</v>
+        <v>1.287272101454363</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.00611625801389</v>
+        <v>4.006116258013776</v>
       </c>
       <c r="C10">
-        <v>0.9703172039588992</v>
+        <v>0.970317203959155</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3134276365992932</v>
+        <v>0.3134276365992648</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.79271519101269</v>
+        <v>3.792715191012661</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.567083119861067</v>
+        <v>1.56708311986101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.338680788698753</v>
+        <v>4.338680788698639</v>
       </c>
       <c r="C11">
-        <v>1.049951943981057</v>
+        <v>1.049951943980972</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3397450720299133</v>
+        <v>0.3397450720299631</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.699634817335081</v>
+        <v>1.699634817335095</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.466659964562496</v>
+        <v>4.466659964562552</v>
       </c>
       <c r="C12">
-        <v>1.080624919820082</v>
+        <v>1.080624919820252</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3499354003863289</v>
+        <v>0.3499354003862791</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.750749130610572</v>
+        <v>1.7507491306106</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.438999907374466</v>
+        <v>4.438999907374296</v>
       </c>
       <c r="C13">
         <v>1.07399419348863</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.347730057728775</v>
+        <v>0.3477300577287892</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>4.181940321743014</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.73969691926608</v>
+        <v>1.739696919266066</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.349166413923058</v>
+        <v>4.349166413922944</v>
       </c>
       <c r="C14">
-        <v>1.052464439975978</v>
+        <v>1.052464439975807</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3405786918412232</v>
+        <v>0.340578691841138</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.100686444682509</v>
+        <v>4.100686444682538</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.703820547026197</v>
+        <v>1.703820547026169</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.294418988540372</v>
+        <v>4.294418988540428</v>
       </c>
       <c r="C15">
-        <v>1.039347392072841</v>
+        <v>1.03934739207287</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.336228769956378</v>
+        <v>0.3362287699563993</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.051289644508245</v>
+        <v>4.051289644508188</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.681970369351959</v>
+        <v>1.68197036935193</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3117368950411432</v>
+        <v>0.3117368950411645</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.55853974953402</v>
+        <v>1.558539749534049</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797842778212441</v>
+        <v>3.797842778212555</v>
       </c>
       <c r="C17">
-        <v>0.9204907913527904</v>
+        <v>0.9204907913532452</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2970685431309406</v>
+        <v>0.2970685431309619</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.607581052715034</v>
+        <v>3.607581052715062</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.48427436544317</v>
+        <v>1.484274365443142</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.691471632188041</v>
+        <v>3.691471632187927</v>
       </c>
       <c r="C18">
         <v>0.8950546828522192</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2887508061546313</v>
+        <v>0.28875080615461</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>3.513581824370249</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.442043086155664</v>
+        <v>1.442043086155678</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.655630509591276</v>
+        <v>3.655630509591333</v>
       </c>
       <c r="C19">
-        <v>0.8864857328853759</v>
+        <v>0.8864857328853475</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2859539587800626</v>
+        <v>0.2859539587799844</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.481995238176523</v>
+        <v>3.48199523817658</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.427822963226802</v>
+        <v>1.427822963226788</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.817614846548395</v>
+        <v>3.817614846548281</v>
       </c>
       <c r="C20">
-        <v>0.92521962898428</v>
+        <v>0.9252196289843369</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2986174300096778</v>
+        <v>0.298617430009763</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.37549396725035</v>
+        <v>4.375493967250065</v>
       </c>
       <c r="C21">
-        <v>1.058773347040244</v>
+        <v>1.058773347039647</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3426727870711588</v>
+        <v>0.3426727870711943</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.124473894724161</v>
+        <v>4.12447389472419</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>4.752236165272109</v>
       </c>
       <c r="C22">
-        <v>1.149131743668818</v>
+        <v>1.149131743668761</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.467171002907065</v>
+        <v>4.467171002907094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.549912444143956</v>
+        <v>4.549912444143843</v>
       </c>
       <c r="C23">
-        <v>1.1005871770532</v>
+        <v>1.100587177053228</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.356582776383803</v>
+        <v>0.3565827763838101</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.28259956336538</v>
+        <v>4.282599563365324</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.808672728002875</v>
+        <v>3.80867272800316</v>
       </c>
       <c r="C24">
-        <v>0.9230809311266057</v>
+        <v>0.9230809311265205</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2979168219370081</v>
+        <v>0.2979168219370791</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.617172601246239</v>
+        <v>3.617172601246352</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>3.04920236016153</v>
       </c>
       <c r="C25">
-        <v>0.7415892310381196</v>
+        <v>0.7415892310383754</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2390878882297471</v>
+        <v>0.2390878882297045</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.954404431538464</v>
+        <v>2.954404431538478</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.187960240873309</v>
+        <v>1.187960240873323</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513586924491051</v>
+        <v>2.513309444046797</v>
       </c>
       <c r="C2">
-        <v>0.6136558822702796</v>
+        <v>0.6135172621723655</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1984609199948082</v>
+        <v>0.1984474583966218</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.500063339537391</v>
+        <v>0.8072453227265441</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.682795462154303</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9773267156569361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.977257175890955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.160962830838287</v>
+        <v>2.160791641357719</v>
       </c>
       <c r="C3">
-        <v>0.5293714833081253</v>
+        <v>0.5292800447070647</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1721509430662778</v>
+        <v>0.1721411419232055</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.207672709545278</v>
+        <v>0.7072510185462306</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.492284330438906</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8393327193511197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8392911745951039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948363965095268</v>
+        <v>1.948246865946032</v>
       </c>
       <c r="C4">
-        <v>0.4785010340793008</v>
+        <v>0.4784352236898712</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1564744065108599</v>
+        <v>0.1564668369948237</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.034276266783067</v>
+        <v>0.6478652777517198</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.379405924420055</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7564170359874964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7563893056783115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862555126773032</v>
+        <v>1.862457673101034</v>
       </c>
       <c r="C5">
-        <v>0.4579516662298033</v>
+        <v>0.457895591534708</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1501897644957495</v>
+        <v>0.1501831109118612</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.964956672946187</v>
+        <v>0.6241031580934902</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.334304693621235</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.723014432923911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7229916178507878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.848352291146625</v>
+        <v>1.848257965822285</v>
       </c>
       <c r="C6">
-        <v>0.4545492711817758</v>
+        <v>0.4544947738545488</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1491520158255639</v>
+        <v>0.149145514988092</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.953521683581897</v>
+        <v>0.6201820808552725</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.326866259285538</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7174893808113936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7174673423167448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94720356482037</v>
+        <v>1.947086739817507</v>
       </c>
       <c r="C7">
-        <v>0.4782232167820553</v>
+        <v>0.4781575403968645</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1563892504300881</v>
+        <v>0.1563816932281128</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.033336220916311</v>
+        <v>0.6475431244339376</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.378794204444148</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7559650799319826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.755937418640606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.391089761275623</v>
+        <v>2.390851516399039</v>
       </c>
       <c r="C8">
-        <v>0.5843859260449449</v>
+        <v>0.5842643532709246</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1892795602360948</v>
+        <v>0.1892673712254762</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.397846535734885</v>
+        <v>0.7723069260667188</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.616173050573522</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9293256723205587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9292665732551768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.300720506639095</v>
+        <v>3.300133179146144</v>
       </c>
       <c r="C9">
-        <v>0.8016692419006972</v>
+        <v>0.8014044069570616</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2584191084781935</v>
+        <v>0.2583970672265181</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.171617212201497</v>
+        <v>1.036392258745394</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.12095420849711</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.287272101454363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.287117189852722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.006116258013776</v>
+        <v>4.005166141659288</v>
       </c>
       <c r="C10">
-        <v>0.970317203959155</v>
+        <v>0.9699142751483976</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3134276365992648</v>
+        <v>0.3133966217412834</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.792715191012661</v>
+        <v>1.247858807412172</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.526721655061436</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.56708311986101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.56682394548065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.338680788698639</v>
+        <v>4.337530985014041</v>
       </c>
       <c r="C11">
-        <v>1.049951943980972</v>
+        <v>1.049475389103321</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3397450720299631</v>
+        <v>0.3397091610858141</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.091218431580813</v>
+        <v>1.349369446622035</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.721871007645774</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.699634817335095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.699316861019724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.466659964562552</v>
+        <v>4.465428285244855</v>
       </c>
       <c r="C12">
-        <v>1.080624919820252</v>
+        <v>1.080118526272912</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3499354003862791</v>
+        <v>0.3498974648619608</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.20700839915105</v>
+        <v>1.388727247370298</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.797589857969911</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.7507491306106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.750406832834571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.438999907374296</v>
+        <v>4.437786163605097</v>
       </c>
       <c r="C13">
-        <v>1.07399419348863</v>
+        <v>1.073494320858941</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3477300577287892</v>
+        <v>0.3476925668696893</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.181940321743014</v>
+        <v>1.380207266130697</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.781196123737431</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.739696919266066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.739359964940064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.349166413922944</v>
+        <v>4.348010008171002</v>
       </c>
       <c r="C14">
-        <v>1.052464439975807</v>
+        <v>1.051985472173499</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.340578691841138</v>
+        <v>0.3405426181233366</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.100686444682538</v>
+        <v>1.352588059691044</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.728062049341133</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.703820547026169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.703500632861903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.294418988540428</v>
+        <v>4.2932968456239</v>
       </c>
       <c r="C15">
-        <v>1.03934739207287</v>
+        <v>1.038880960367521</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3362287699563993</v>
+        <v>0.3361935401727578</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.051289644508188</v>
+        <v>1.335795075393747</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.695762767488333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.68197036935193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.681660606234473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.984647097053028</v>
+        <v>3.983709231432556</v>
       </c>
       <c r="C16">
-        <v>0.965179508812696</v>
+        <v>0.96478114184643</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3117368950411645</v>
+        <v>0.3117061795956531</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.773565841744613</v>
+        <v>1.241344313562905</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.514205295504269</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.558539749534049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.558284152460544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797842778212555</v>
+        <v>3.797008272025494</v>
       </c>
       <c r="C17">
-        <v>0.9204907913532452</v>
+        <v>0.9201311541584971</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2970685431309619</v>
+        <v>0.2970403557965398</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.607581052715062</v>
+        <v>1.184864005559064</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.405729400683896</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.484274365443142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.484048805321379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.691471632187927</v>
+        <v>3.690693406097239</v>
       </c>
       <c r="C18">
-        <v>0.8950546828522192</v>
+        <v>0.8947163340121165</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.28875080615461</v>
+        <v>0.2887240003721274</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.513581824370249</v>
+        <v>1.152867519235656</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.344310439710853</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.442043086155678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.441833766778117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.655630509591333</v>
+        <v>3.654870828558444</v>
       </c>
       <c r="C19">
-        <v>0.8864857328853475</v>
+        <v>0.8861544329996889</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2859539587799844</v>
+        <v>0.285927609662977</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.48199523817658</v>
+        <v>1.142113868344097</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.323673899226776</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.427822963226788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.427618976658479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.817614846548281</v>
+        <v>3.816769673861074</v>
       </c>
       <c r="C20">
-        <v>0.9252196289843369</v>
+        <v>0.9248559738110202</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.298617430009763</v>
+        <v>0.2985889813947296</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.625095128010599</v>
+        <v>1.190824740611475</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.417174076927154</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.492128841299106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.491900193772523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.375493967250065</v>
+        <v>4.37432090156193</v>
       </c>
       <c r="C21">
-        <v>1.058773347039647</v>
+        <v>1.058288295852805</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3426727870711943</v>
+        <v>0.342636302250483</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.12447389472419</v>
+        <v>1.360674213646178</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.743616751248027</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.714331894769799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.714007036193024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.752236165272109</v>
+        <v>4.750811477488014</v>
       </c>
       <c r="C22">
-        <v>1.149131743668761</v>
+        <v>1.148555672473009</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3727973054552152</v>
+        <v>0.3727545350510937</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.467171002907094</v>
+        <v>1.477123769013957</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.967755823805703</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.865014810257421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.86461463178469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.549912444143843</v>
+        <v>4.548625978342955</v>
       </c>
       <c r="C23">
-        <v>1.100587177053228</v>
+        <v>1.100060915506674</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3565827763838101</v>
+        <v>0.3565434780824432</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.282599563365324</v>
+        <v>1.414415985833045</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.847027025828766</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.784030844225924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.783672186164992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.80867272800316</v>
+        <v>3.8078323873371</v>
       </c>
       <c r="C24">
-        <v>0.9230809311265205</v>
+        <v>0.922719095497996</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2979168219370791</v>
+        <v>0.2978884916671092</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.617172601246352</v>
+        <v>1.188128424641206</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.411997016471133</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.488576396642557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.488349148101037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.04920236016153</v>
+        <v>3.048724861645383</v>
       </c>
       <c r="C25">
-        <v>0.7415892310383754</v>
+        <v>0.7413678759673132</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2390878882297045</v>
+        <v>0.2390687020055964</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.954404431538478</v>
+        <v>0.9623412900933772</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.979156522961574</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.187960240873323</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.187836078613138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513309444046797</v>
+        <v>3.555211039941639</v>
       </c>
       <c r="C2">
-        <v>0.6135172621723655</v>
+        <v>0.9550173249178044</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1984474583966218</v>
+        <v>0.4489721624542113</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.850763902083202</v>
       </c>
       <c r="G2">
-        <v>0.8072453227265441</v>
+        <v>0.0007804893047347556</v>
       </c>
       <c r="H2">
-        <v>1.682795462154303</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08761029040444157</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.977257175890955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.056079438735935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.160791641357719</v>
+        <v>3.068375600690274</v>
       </c>
       <c r="C3">
-        <v>0.5292800447070647</v>
+        <v>0.8248818198856611</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1721411419232055</v>
+        <v>0.39372662730743</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.543575190205203</v>
       </c>
       <c r="G3">
-        <v>0.7072510185462306</v>
+        <v>0.0007895233622268394</v>
       </c>
       <c r="H3">
-        <v>1.492284330438906</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07954324267323187</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8392911745951039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.9591802567332763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948246865946032</v>
+        <v>2.773615101645646</v>
       </c>
       <c r="C4">
-        <v>0.4784352236898712</v>
+        <v>0.7459525601773009</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1564668369948237</v>
+        <v>0.3601699847172881</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.362270107242495</v>
       </c>
       <c r="G4">
-        <v>0.6478652777517198</v>
+        <v>0.0007951928561410246</v>
       </c>
       <c r="H4">
-        <v>1.379405924420055</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07496857425854841</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7563893056783115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.9039810444682317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862457673101034</v>
+        <v>2.654374711913135</v>
       </c>
       <c r="C5">
-        <v>0.457895591534708</v>
+        <v>0.7139883494843957</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1501831109118612</v>
+        <v>0.3465736728527631</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.290025626993327</v>
       </c>
       <c r="G5">
-        <v>0.6241031580934902</v>
+        <v>0.0007975362041223543</v>
       </c>
       <c r="H5">
-        <v>1.334304693621235</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07318958519234542</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7229916178507878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.8824574045443399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.848257965822285</v>
+        <v>2.63462327204968</v>
       </c>
       <c r="C6">
-        <v>0.4544947738545488</v>
+        <v>0.7086915734340948</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.149145514988092</v>
+        <v>0.3443203799305508</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.278122986139294</v>
       </c>
       <c r="G6">
-        <v>0.6201820808552725</v>
+        <v>0.0007979273671060438</v>
       </c>
       <c r="H6">
-        <v>1.326866259285538</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0728990595432677</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7174673423167448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.8789390086634015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947086739817507</v>
+        <v>2.772003644754591</v>
       </c>
       <c r="C7">
-        <v>0.4781575403968645</v>
+        <v>0.7455207255788707</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1563816932281128</v>
+        <v>0.3599863197425961</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.361289407499143</v>
       </c>
       <c r="G7">
-        <v>0.6475431244339376</v>
+        <v>0.0007952243230280875</v>
       </c>
       <c r="H7">
-        <v>1.378794204444148</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0749442495882704</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.755937418640606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.9036869777799765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390851516399039</v>
+        <v>3.386380113145833</v>
       </c>
       <c r="C8">
-        <v>0.5842643532709246</v>
+        <v>0.9099158135543917</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1892673712254762</v>
+        <v>0.4298394174276083</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.74320195743195</v>
       </c>
       <c r="G8">
-        <v>0.7723069260667188</v>
+        <v>0.000783580182697975</v>
       </c>
       <c r="H8">
-        <v>1.616173050573522</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08474390155968337</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9292665732551768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.021707087928363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.300133179146144</v>
+        <v>4.632788666203112</v>
       </c>
       <c r="C9">
-        <v>0.8014044069570616</v>
+        <v>1.242332615354087</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2583970672265181</v>
+        <v>0.5703973136857954</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>3.560252851841852</v>
       </c>
       <c r="G9">
-        <v>1.036392258745394</v>
+        <v>0.0007616086312783876</v>
       </c>
       <c r="H9">
-        <v>2.12095420849711</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1074713274398675</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.287117189852722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.292823625939064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.005166141659288</v>
+        <v>5.587720144858736</v>
       </c>
       <c r="C10">
-        <v>0.9699142751483976</v>
+        <v>1.496396663968312</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3133966217412834</v>
+        <v>0.6769488825772356</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>4.218217146408591</v>
       </c>
       <c r="G10">
-        <v>1.247858807412172</v>
+        <v>0.0007458174055334002</v>
       </c>
       <c r="H10">
-        <v>2.526721655061436</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1271215240694019</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.56682394548065</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1.525110284968008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.337530985014041</v>
+        <v>6.034338503040033</v>
       </c>
       <c r="C11">
-        <v>1.049475389103321</v>
+        <v>1.615111116341041</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3397091610858141</v>
+        <v>0.7264291539694767</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>4.534365397106711</v>
       </c>
       <c r="G11">
-        <v>1.349369446622035</v>
+        <v>0.0007386636614246728</v>
       </c>
       <c r="H11">
-        <v>2.721871007645774</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.136920109729445</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.699316861019724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.640347540038945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.465428285244855</v>
+        <v>6.205582908126587</v>
       </c>
       <c r="C12">
-        <v>1.080118526272912</v>
+        <v>1.660616154938396</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3498974648619608</v>
+        <v>0.7453402191924141</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>4.656931045572549</v>
       </c>
       <c r="G12">
-        <v>1.388727247370298</v>
+        <v>0.0007359544470461423</v>
       </c>
       <c r="H12">
-        <v>2.797589857969911</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1407760786800978</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.750406832834571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1.685598177768384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.437786163605097</v>
+        <v>6.168601672216312</v>
       </c>
       <c r="C13">
-        <v>1.073494320858941</v>
+        <v>1.650789595243225</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3476925668696893</v>
+        <v>0.7412591378987514</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>4.63040018443516</v>
       </c>
       <c r="G13">
-        <v>1.380207266130697</v>
+        <v>0.0007365380156510643</v>
       </c>
       <c r="H13">
-        <v>2.781196123737431</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1399387699736323</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.739359964940064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1.675776724256281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.348010008171002</v>
+        <v>6.048382111899059</v>
       </c>
       <c r="C14">
-        <v>1.051985472173499</v>
+        <v>1.618843185601349</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3405426181233366</v>
+        <v>0.7279813109163911</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>4.544389199176464</v>
       </c>
       <c r="G14">
-        <v>1.352588059691044</v>
+        <v>0.0007384408061295114</v>
       </c>
       <c r="H14">
-        <v>2.728062049341133</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1372342891819045</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.703500632861903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.644036519560501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.2932968456239</v>
+        <v>5.975031981235361</v>
       </c>
       <c r="C15">
-        <v>1.038880960367521</v>
+        <v>1.599349989508653</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3361935401727578</v>
+        <v>0.7198718459037678</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>4.492089584572227</v>
       </c>
       <c r="G15">
-        <v>1.335795075393747</v>
+        <v>0.0007396061416119246</v>
       </c>
       <c r="H15">
-        <v>2.695762767488333</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1355973701221984</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.681660606234473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1.624812446892435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.983709231432556</v>
+        <v>5.558808147143736</v>
       </c>
       <c r="C16">
-        <v>0.96478114184643</v>
+        <v>1.488709670571666</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3117061795956531</v>
+        <v>0.6737379042572087</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>4.197929821829774</v>
       </c>
       <c r="G16">
-        <v>1.241344313562905</v>
+        <v>0.0007462851473132933</v>
       </c>
       <c r="H16">
-        <v>2.514205295504269</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1265002477796031</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.558284152460544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.517791198566457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797008272025494</v>
+        <v>5.306837918088036</v>
       </c>
       <c r="C17">
-        <v>0.9201311541584971</v>
+        <v>1.421705053396693</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2970403557965398</v>
+        <v>0.6457138921799981</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>4.022067316355731</v>
       </c>
       <c r="G17">
-        <v>1.184864005559064</v>
+        <v>0.0007503871175466138</v>
       </c>
       <c r="H17">
-        <v>2.405729400683896</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.121154076770047</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.484048805321379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.45474488720231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.690693406097239</v>
+        <v>5.163036252695974</v>
       </c>
       <c r="C18">
-        <v>0.8947163340121165</v>
+        <v>1.383454481649949</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2887240003721274</v>
+        <v>0.6296882676289641</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.922471525676599</v>
       </c>
       <c r="G18">
-        <v>1.152867519235656</v>
+        <v>0.000752749572388726</v>
       </c>
       <c r="H18">
-        <v>2.344310439710853</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1181585122858166</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.441833766778117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1.419366784237354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.654870828558444</v>
+        <v>5.114530529989622</v>
       </c>
       <c r="C19">
-        <v>0.8861544329996889</v>
+        <v>1.370550319812423</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.285927609662977</v>
+        <v>0.6242774406681093</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.889005375941736</v>
       </c>
       <c r="G19">
-        <v>1.142113868344097</v>
+        <v>0.0007535501199246748</v>
       </c>
       <c r="H19">
-        <v>2.323673899226776</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1171572958473632</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.427618976658479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.407533660405122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.816769673861074</v>
+        <v>5.333541700657634</v>
       </c>
       <c r="C20">
-        <v>0.9248559738110202</v>
+        <v>1.428807262150826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2985889813947296</v>
+        <v>0.6486872716619558</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>4.040624300223897</v>
       </c>
       <c r="G20">
-        <v>1.190824740611475</v>
+        <v>0.0007499501643815076</v>
       </c>
       <c r="H20">
-        <v>2.417174076927154</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1217148200512952</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.491900193772523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1.461363139800383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.37432090156193</v>
+        <v>6.0836327967898</v>
       </c>
       <c r="C21">
-        <v>1.058288295852805</v>
+        <v>1.62821081053977</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.342636302250483</v>
+        <v>0.7318763569591624</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>4.569571701065911</v>
       </c>
       <c r="G21">
-        <v>1.360674213646178</v>
+        <v>0.0007378819568157415</v>
       </c>
       <c r="H21">
-        <v>2.743616751248027</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1380245206790036</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.714007036193024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1.653313535957523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.750811477488014</v>
+        <v>6.586429157491523</v>
       </c>
       <c r="C22">
-        <v>1.148555672473009</v>
+        <v>1.7617995009781</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3727545350510937</v>
+        <v>0.787276058144883</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.932115136862649</v>
       </c>
       <c r="G22">
-        <v>1.477123769013957</v>
+        <v>0.0007299905979180476</v>
       </c>
       <c r="H22">
-        <v>2.967755823805703</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1495446374808154</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.86461463178469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1.788304340938851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.548625978342955</v>
+        <v>6.316791382276676</v>
       </c>
       <c r="C23">
-        <v>1.100060915506674</v>
+        <v>1.690164595039732</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3565434780824432</v>
+        <v>0.7576031141139623</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>4.736918005290846</v>
       </c>
       <c r="G23">
-        <v>1.414415985833045</v>
+        <v>0.0007342044298841778</v>
       </c>
       <c r="H23">
-        <v>2.847027025828766</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1433091535309785</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.783672186164992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1.715295481089314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.8078323873371</v>
+        <v>5.32146564748848</v>
       </c>
       <c r="C24">
-        <v>0.922719095497996</v>
+        <v>1.425595515863051</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2978884916671092</v>
+        <v>0.6473427418077762</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>4.032230016068496</v>
       </c>
       <c r="G24">
-        <v>1.188128424641206</v>
+        <v>0.0007501476975311228</v>
       </c>
       <c r="H24">
-        <v>2.411997016471133</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1214610665977176</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.488349148101037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.458368341361293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.048724861645383</v>
+        <v>4.289831107034331</v>
       </c>
       <c r="C25">
-        <v>0.7413678759673132</v>
+        <v>1.150977618725506</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2390687020055964</v>
+        <v>0.5318848297466943</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>3.330388370487441</v>
       </c>
       <c r="G25">
-        <v>0.9623412900933772</v>
+        <v>0.0007674768443397725</v>
       </c>
       <c r="H25">
-        <v>1.979156522961574</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1008700621050096</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.187836078613138</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.214384058024223</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.555211039941639</v>
+        <v>0.8955023494816032</v>
       </c>
       <c r="C2">
-        <v>0.9550173249178044</v>
+        <v>0.09140842419377293</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4489721624542113</v>
+        <v>0.04352209944995344</v>
       </c>
       <c r="F2">
-        <v>2.850763902083202</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007804893047347556</v>
+        <v>0.8078851858848424</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6129978965413017</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6717974786262886</v>
       </c>
       <c r="J2">
-        <v>0.08761029040444157</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8158658797385385</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1624853569129172</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2009722485336134</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.056079438735935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.068375600690274</v>
+        <v>0.7787955511945484</v>
       </c>
       <c r="C3">
-        <v>0.8248818198856611</v>
+        <v>0.08383448397571414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.39372662730743</v>
+        <v>0.04258079660972491</v>
       </c>
       <c r="F3">
-        <v>2.543575190205203</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007895233622268394</v>
+        <v>0.8041981531657427</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6198261904427085</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6813065028925145</v>
       </c>
       <c r="J3">
-        <v>0.07954324267323187</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7077531258084093</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1485094019124134</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1764976541828993</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9591802567332763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.773615101645646</v>
+        <v>0.707539112056736</v>
       </c>
       <c r="C4">
-        <v>0.7459525601773009</v>
+        <v>0.07918661128891813</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3601699847172881</v>
+        <v>0.04205064726466468</v>
       </c>
       <c r="F4">
-        <v>2.362270107242495</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007951928561410246</v>
+        <v>0.8036403253315569</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6250025155093084</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6883405047100908</v>
       </c>
       <c r="J4">
-        <v>0.07496857425854841</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6416600173186993</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1401184635591761</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1616105705427202</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9039810444682317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.654374711913135</v>
+        <v>0.6785877979241377</v>
       </c>
       <c r="C5">
-        <v>0.7139883494843957</v>
+        <v>0.07729190802136543</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3465736728527631</v>
+        <v>0.04184625914586526</v>
       </c>
       <c r="F5">
-        <v>2.290025626993327</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007975362041223543</v>
+        <v>0.8038225836837398</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6273506411403815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6914966153017659</v>
       </c>
       <c r="J5">
-        <v>0.07318958519234542</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6147849021953675</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1367438950782329</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1555756365505161</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8824574045443399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.63462327204968</v>
+        <v>0.6737852478702848</v>
       </c>
       <c r="C6">
-        <v>0.7086915734340948</v>
+        <v>0.07697721786809097</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3443203799305508</v>
+        <v>0.04181301390387659</v>
       </c>
       <c r="F6">
-        <v>2.278122986139294</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007979273671060438</v>
+        <v>0.8038770369458916</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6277547207334067</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6920378742141473</v>
       </c>
       <c r="J6">
-        <v>0.0728990595432677</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.610325436053941</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1361861704710137</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1545753510562129</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8789390086634015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.772003644754591</v>
+        <v>0.7071483341846658</v>
       </c>
       <c r="C7">
-        <v>0.7455207255788707</v>
+        <v>0.07916106297788161</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3599863197425961</v>
+        <v>0.04204784411339624</v>
       </c>
       <c r="F7">
-        <v>2.361289407499143</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007952243230280875</v>
+        <v>0.8036411498676728</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6250332276075454</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6883819101300475</v>
       </c>
       <c r="J7">
-        <v>0.0749442495882704</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6412973519526304</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1400727754500508</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1615290577209834</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9036869777799765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.386380113145833</v>
+        <v>0.855169175088065</v>
       </c>
       <c r="C8">
-        <v>0.9099158135543917</v>
+        <v>0.08879558746282612</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4298394174276083</v>
+        <v>0.04318738472184336</v>
       </c>
       <c r="F8">
-        <v>2.74320195743195</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000783580182697975</v>
+        <v>0.8062477949513323</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6151427761513304</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6748213386131461</v>
       </c>
       <c r="J8">
-        <v>0.08474390155968337</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7785198673745697</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1576250424985091</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1925020043772072</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.021707087928363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.632788666203112</v>
+        <v>1.14935553752133</v>
       </c>
       <c r="C9">
-        <v>1.242332615354087</v>
+        <v>0.1077730955846761</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5703973136857954</v>
+        <v>0.04581926411515802</v>
       </c>
       <c r="F9">
-        <v>3.560252851841852</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007616086312783876</v>
+        <v>0.8258274484345947</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6039670815951155</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6582358623708231</v>
       </c>
       <c r="J9">
-        <v>0.1074713274398675</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.050599659266368</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.193703568440327</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2545316727251112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.292823625939064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.587720144858736</v>
+        <v>1.368987997736298</v>
       </c>
       <c r="C10">
-        <v>1.496396663968312</v>
+        <v>0.1218646397087042</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6769488825772356</v>
+        <v>0.04802164078600235</v>
       </c>
       <c r="F10">
-        <v>4.218217146408591</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007458174055334002</v>
+        <v>0.8504181769492902</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6013827519855113</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6529248195132951</v>
       </c>
       <c r="J10">
-        <v>0.1271215240694019</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.253376091938691</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2214437057768492</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3011608406142443</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.525110284968008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.034338503040033</v>
+        <v>1.469930866809165</v>
       </c>
       <c r="C11">
-        <v>1.615111116341041</v>
+        <v>0.1283314708662999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7264291539694767</v>
+        <v>0.04908824622029506</v>
       </c>
       <c r="F11">
-        <v>4.534365397106711</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007386636614246728</v>
+        <v>0.8641549876012107</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6015773058873464</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.652187606000453</v>
       </c>
       <c r="J11">
-        <v>0.136920109729445</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.346506426160545</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2343845778720066</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3226677859888625</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.640347540038945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.205582908126587</v>
+        <v>1.508327431579033</v>
       </c>
       <c r="C12">
-        <v>1.660616154938396</v>
+        <v>0.1307905956737727</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7453402191924141</v>
+        <v>0.04950201447397973</v>
       </c>
       <c r="F12">
-        <v>4.656931045572549</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007359544470461423</v>
+        <v>0.8697538192360383</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6018615327229782</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6521667885366256</v>
       </c>
       <c r="J12">
-        <v>0.1407760786800978</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.381922880532954</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2393359868171956</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3308601272461473</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.685598177768384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.168601672216312</v>
+        <v>1.500050014446629</v>
       </c>
       <c r="C13">
-        <v>1.650789595243225</v>
+        <v>0.1302604857479395</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7412591378987514</v>
+        <v>0.04941245385808024</v>
       </c>
       <c r="F13">
-        <v>4.63040018443516</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007365380156510643</v>
+        <v>0.8685298458758552</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6017907277943806</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6521594975227814</v>
       </c>
       <c r="J13">
-        <v>0.1399387699736323</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.374288261737604</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2382672658727643</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3290935239172441</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.675776724256281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.048382111899059</v>
+        <v>1.473086193230813</v>
       </c>
       <c r="C14">
-        <v>1.618843185601349</v>
+        <v>0.1285335655729796</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7279813109163911</v>
+        <v>0.04912208606748258</v>
       </c>
       <c r="F14">
-        <v>4.544389199176464</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007384408061295114</v>
+        <v>0.8646074683245644</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6015963882012585</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6521806137708452</v>
       </c>
       <c r="J14">
-        <v>0.1372342891819045</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.349417016609124</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2347908832035159</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3233407760411282</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.644036519560501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.975031981235361</v>
+        <v>1.456593161843159</v>
       </c>
       <c r="C15">
-        <v>1.599349989508653</v>
+        <v>0.1274771825397352</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7198718459037678</v>
+        <v>0.04894552979598288</v>
       </c>
       <c r="F15">
-        <v>4.492089584572227</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007396061416119246</v>
+        <v>0.8622575396640997</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6015051900071882</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6522277186012957</v>
       </c>
       <c r="J15">
-        <v>0.1355973701221984</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.334202899433251</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2326682839253351</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3198234962670625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.624812446892435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.558808147143736</v>
+        <v>1.362413850009744</v>
       </c>
       <c r="C16">
-        <v>1.488709670571666</v>
+        <v>0.1214433336076723</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6737379042572087</v>
+        <v>0.04795328512056152</v>
       </c>
       <c r="F16">
-        <v>4.197929821829774</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007462851473132933</v>
+        <v>0.8495742958872796</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6013987402980945</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6530081977015882</v>
       </c>
       <c r="J16">
-        <v>0.1265002477796031</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.247309527377809</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2206048585100859</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.299761725707306</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.517791198566457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.306837918088036</v>
+        <v>1.304918033225619</v>
       </c>
       <c r="C17">
-        <v>1.421705053396693</v>
+        <v>0.1177577062254471</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6457138921799981</v>
+        <v>0.04736154045638052</v>
       </c>
       <c r="F17">
-        <v>4.022067316355731</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007503871175466138</v>
+        <v>0.8424675269480133</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6016936570521949</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6539286161573656</v>
       </c>
       <c r="J17">
-        <v>0.121154076770047</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.194245743034799</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2132899864160294</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.28753397161951</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.45474488720231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.163036252695974</v>
+        <v>1.271943486557007</v>
       </c>
       <c r="C18">
-        <v>1.383454481649949</v>
+        <v>0.1156430106209996</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6296882676289641</v>
+        <v>0.04702724179714224</v>
       </c>
       <c r="F18">
-        <v>3.922471525676599</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.000752749572388726</v>
+        <v>0.8386180045970093</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6019913814844244</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.654614943444038</v>
       </c>
       <c r="J18">
-        <v>0.1181585122858166</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.163806824386057</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2091126465326028</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2805283006004302</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.419366784237354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.114530529989622</v>
+        <v>1.260794594839751</v>
       </c>
       <c r="C19">
-        <v>1.370550319812423</v>
+        <v>0.1149278383395256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6242774406681093</v>
+        <v>0.04691507794883876</v>
       </c>
       <c r="F19">
-        <v>3.889005375941736</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007535501199246748</v>
+        <v>0.8373546337971618</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6021137919419317</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6548737798280442</v>
       </c>
       <c r="J19">
-        <v>0.1171572958473632</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.153514149805318</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2077032824770413</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2781608422693083</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.407533660405122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.333541700657634</v>
+        <v>1.31102851068772</v>
       </c>
       <c r="C20">
-        <v>1.428807262150826</v>
+        <v>0.1181494965192513</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6486872716619558</v>
+        <v>0.04742390186168244</v>
       </c>
       <c r="F20">
-        <v>4.040624300223897</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007499501643815076</v>
+        <v>0.8431992003255147</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.601648910688084</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6538142762409862</v>
       </c>
       <c r="J20">
-        <v>0.1217148200512952</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.199885832668429</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2140655311055326</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2888327603168364</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.461363139800383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.0836327967898</v>
+        <v>1.481001265109938</v>
       </c>
       <c r="C21">
-        <v>1.62821081053977</v>
+        <v>0.1290405068774305</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7318763569591624</v>
+        <v>0.04920710165469089</v>
       </c>
       <c r="F21">
-        <v>4.569571701065911</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007378819568157415</v>
+        <v>0.8657485378975309</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6016476428306419</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6521672581540585</v>
       </c>
       <c r="J21">
-        <v>0.1380245206790036</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.356718043522648</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2358105580357091</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3250291437202861</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.653313535957523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.586429157491523</v>
+        <v>1.593101326192055</v>
       </c>
       <c r="C22">
-        <v>1.7617995009781</v>
+        <v>0.1362194539371444</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.787276058144883</v>
+        <v>0.05043033291075183</v>
       </c>
       <c r="F22">
-        <v>4.932115136862649</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007299905979180476</v>
+        <v>0.8828157007883561</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6028811704980228</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6526055550005339</v>
       </c>
       <c r="J22">
-        <v>0.1495446374808154</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.460103239603285</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2503218078239513</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3489690774008096</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.788304340938851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.316791382276676</v>
+        <v>1.533170464942486</v>
       </c>
       <c r="C23">
-        <v>1.690164595039732</v>
+        <v>0.1323815662629215</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7576031141139623</v>
+        <v>0.04977198647177339</v>
       </c>
       <c r="F23">
-        <v>4.736918005290846</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007342044298841778</v>
+        <v>0.8734828022391241</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6021051084167368</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6522270736538971</v>
       </c>
       <c r="J23">
-        <v>0.1433091535309785</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.404835563204614</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2425478103329652</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3361639410359345</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.715295481089314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.32146564748848</v>
+        <v>1.308265714636178</v>
       </c>
       <c r="C24">
-        <v>1.425595515863051</v>
+        <v>0.11797235514085</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6473427418077762</v>
+        <v>0.04739568992491527</v>
       </c>
       <c r="F24">
-        <v>4.032230016068496</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007501476975311228</v>
+        <v>0.8428676771724355</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6016687422988696</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6538654810434039</v>
       </c>
       <c r="J24">
-        <v>0.1214610665977176</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.197335737531887</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2137148202483417</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2882455029077704</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.458368341361293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.289831107034331</v>
+        <v>1.069241708342588</v>
       </c>
       <c r="C25">
-        <v>1.150977618725506</v>
+        <v>0.1026205903175992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5318848297466943</v>
+        <v>0.04506210422847268</v>
       </c>
       <c r="F25">
-        <v>3.330388370487441</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007674768443397725</v>
+        <v>0.8188447279907649</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6060496067446053</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6615748224351421</v>
       </c>
       <c r="J25">
-        <v>0.1008700621050096</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.976570609743959</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1837438048030648</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2375861602694584</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.214384058024223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8955023494816032</v>
+        <v>0.5325700330326129</v>
       </c>
       <c r="C2">
-        <v>0.09140842419377293</v>
+        <v>0.07171134690607062</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04352209944995344</v>
+        <v>0.09701186566914544</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.8078851858848424</v>
+        <v>1.376991519755975</v>
       </c>
       <c r="H2">
-        <v>0.6129978965413017</v>
+        <v>1.300496466101066</v>
       </c>
       <c r="I2">
-        <v>0.6717974786262886</v>
+        <v>1.325132537853463</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8158658797385385</v>
+        <v>0.3345138496387108</v>
       </c>
       <c r="L2">
-        <v>0.1624853569129172</v>
+        <v>0.2184663207233086</v>
       </c>
       <c r="M2">
-        <v>0.2009722485336134</v>
+        <v>0.164825157848302</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7787955511945484</v>
+        <v>0.5009736353710537</v>
       </c>
       <c r="C3">
-        <v>0.08383448397571414</v>
+        <v>0.06909471166952841</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04258079660972491</v>
+        <v>0.09723511531864659</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.8041981531657427</v>
+        <v>1.384807818900853</v>
       </c>
       <c r="H3">
-        <v>0.6198261904427085</v>
+        <v>1.309205032845469</v>
       </c>
       <c r="I3">
-        <v>0.6813065028925145</v>
+        <v>1.335038009770244</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7077531258084093</v>
+        <v>0.3035680431421497</v>
       </c>
       <c r="L3">
-        <v>0.1485094019124134</v>
+        <v>0.215948427421857</v>
       </c>
       <c r="M3">
-        <v>0.1764976541828993</v>
+        <v>0.1587435054090882</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.707539112056736</v>
+        <v>0.4817774397117489</v>
       </c>
       <c r="C4">
-        <v>0.07918661128891813</v>
+        <v>0.06746485726785068</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04205064726466468</v>
+        <v>0.09740470357287734</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.8036403253315569</v>
+        <v>1.390361661925581</v>
       </c>
       <c r="H4">
-        <v>0.6250025155093084</v>
+        <v>1.315073714672465</v>
       </c>
       <c r="I4">
-        <v>0.6883405047100908</v>
+        <v>1.341709805329064</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6416600173186993</v>
+        <v>0.2846535573075499</v>
       </c>
       <c r="L4">
-        <v>0.1401184635591761</v>
+        <v>0.2145079094339408</v>
       </c>
       <c r="M4">
-        <v>0.1616105705427202</v>
+        <v>0.1550847539822477</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6785877979241377</v>
+        <v>0.4740066255261866</v>
       </c>
       <c r="C5">
-        <v>0.07729190802136543</v>
+        <v>0.06679482544931403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04184625914586526</v>
+        <v>0.09748200461575429</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.8038225836837398</v>
+        <v>1.392814494098246</v>
       </c>
       <c r="H5">
-        <v>0.6273506411403815</v>
+        <v>1.317596442192482</v>
       </c>
       <c r="I5">
-        <v>0.6914966153017659</v>
+        <v>1.344576903353701</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6147849021953675</v>
+        <v>0.2769677922792795</v>
       </c>
       <c r="L5">
-        <v>0.1367438950782329</v>
+        <v>0.2139474631806735</v>
       </c>
       <c r="M5">
-        <v>0.1555756365505161</v>
+        <v>0.1536128385240936</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6737852478702848</v>
+        <v>0.47271942954103</v>
       </c>
       <c r="C6">
-        <v>0.07697721786809097</v>
+        <v>0.06668321334144167</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04181301390387659</v>
+        <v>0.0974953357002164</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.8038770369458916</v>
+        <v>1.393233231608662</v>
       </c>
       <c r="H6">
-        <v>0.6277547207334067</v>
+        <v>1.318023263887738</v>
       </c>
       <c r="I6">
-        <v>0.6920378742141473</v>
+        <v>1.345061938349119</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.610325436053941</v>
+        <v>0.2756929177223668</v>
       </c>
       <c r="L6">
-        <v>0.1361861704710137</v>
+        <v>0.2138560082309908</v>
       </c>
       <c r="M6">
-        <v>0.1545753510562129</v>
+        <v>0.1533695817527203</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7071483341846658</v>
+        <v>0.4816724294749406</v>
       </c>
       <c r="C7">
-        <v>0.07916106297788161</v>
+        <v>0.06745584469685184</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04204784411339624</v>
+        <v>0.09740571288795508</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8036411498676728</v>
+        <v>1.390393974219378</v>
       </c>
       <c r="H7">
-        <v>0.6250332276075454</v>
+        <v>1.315107205823622</v>
       </c>
       <c r="I7">
-        <v>0.6883819101300475</v>
+        <v>1.341747871638013</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6412973519526304</v>
+        <v>0.2845498147147509</v>
       </c>
       <c r="L7">
-        <v>0.1400727754500508</v>
+        <v>0.2145002433813517</v>
       </c>
       <c r="M7">
-        <v>0.1615290577209834</v>
+        <v>0.1550648259361616</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.855169175088065</v>
+        <v>0.5216334965336387</v>
       </c>
       <c r="C8">
-        <v>0.08879558746282612</v>
+        <v>0.0708139447546543</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04318738472184336</v>
+        <v>0.09708210436678932</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.8062477949513323</v>
+        <v>1.379529867056149</v>
       </c>
       <c r="H8">
-        <v>0.6151427761513304</v>
+        <v>1.303390945210637</v>
       </c>
       <c r="I8">
-        <v>0.6748213386131461</v>
+        <v>1.328425519211031</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7785198673745697</v>
+        <v>0.3238259946662367</v>
       </c>
       <c r="L8">
-        <v>0.1576250424985091</v>
+        <v>0.2175762894750974</v>
       </c>
       <c r="M8">
-        <v>0.1925020043772072</v>
+        <v>0.1627126069354006</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.14935553752133</v>
+        <v>0.6016007230618925</v>
       </c>
       <c r="C9">
-        <v>0.1077730955846761</v>
+        <v>0.07721564099557554</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04581926411515802</v>
+        <v>0.09670477869301486</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.8258274484345947</v>
+        <v>1.364220585244894</v>
       </c>
       <c r="H9">
-        <v>0.6039670815951155</v>
+        <v>1.284552643516648</v>
       </c>
       <c r="I9">
-        <v>0.6582358623708231</v>
+        <v>1.306981394634171</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.050599659266368</v>
+        <v>0.4015215805349328</v>
       </c>
       <c r="L9">
-        <v>0.193703568440327</v>
+        <v>0.2244435680668531</v>
       </c>
       <c r="M9">
-        <v>0.2545316727251112</v>
+        <v>0.178305041710594</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.368987997736298</v>
+        <v>0.6613155085839537</v>
       </c>
       <c r="C10">
-        <v>0.1218646397087042</v>
+        <v>0.08180856166585215</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04802164078600235</v>
+        <v>0.0965835288228476</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.8504181769492902</v>
+        <v>1.356639524202023</v>
       </c>
       <c r="H10">
-        <v>0.6013827519855113</v>
+        <v>1.273232903212673</v>
       </c>
       <c r="I10">
-        <v>0.6529248195132951</v>
+        <v>1.294082031993348</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.253376091938691</v>
+        <v>0.4590085242639077</v>
       </c>
       <c r="L10">
-        <v>0.2214437057768492</v>
+        <v>0.2299965601603446</v>
       </c>
       <c r="M10">
-        <v>0.3011608406142443</v>
+        <v>0.1901207641981486</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469930866809165</v>
+        <v>0.6886876983664365</v>
       </c>
       <c r="C11">
-        <v>0.1283314708662999</v>
+        <v>0.08387436762549783</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04908824622029506</v>
+        <v>0.09656205866543743</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.8641549876012107</v>
+        <v>1.353989515841718</v>
       </c>
       <c r="H11">
-        <v>0.6015773058873464</v>
+        <v>1.268630369126981</v>
       </c>
       <c r="I11">
-        <v>0.652187606000453</v>
+        <v>1.288834327234902</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.346506426160545</v>
+        <v>0.4852473483947506</v>
       </c>
       <c r="L11">
-        <v>0.2343845778720066</v>
+        <v>0.2326327117797291</v>
       </c>
       <c r="M11">
-        <v>0.3226677859888625</v>
+        <v>0.1955736905285903</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.508327431579033</v>
+        <v>0.6990823250916662</v>
       </c>
       <c r="C12">
-        <v>0.1307905956737727</v>
+        <v>0.08465326862983602</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04950201447397973</v>
+        <v>0.09655875678478765</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.8697538192360383</v>
+        <v>1.353101071585371</v>
       </c>
       <c r="H12">
-        <v>0.6018615327229782</v>
+        <v>1.266966131508042</v>
       </c>
       <c r="I12">
-        <v>0.6521667885366256</v>
+        <v>1.286936396056419</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.381922880532954</v>
+        <v>0.4951956889036921</v>
       </c>
       <c r="L12">
-        <v>0.2393359868171956</v>
+        <v>0.2336467414921657</v>
       </c>
       <c r="M12">
-        <v>0.3308601272461473</v>
+        <v>0.1976497001880944</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.500050014446629</v>
+        <v>0.6968423575866325</v>
       </c>
       <c r="C13">
-        <v>0.1302604857479395</v>
+        <v>0.08448566830638526</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04941245385808024</v>
+        <v>0.09655925340987892</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.8685298458758552</v>
+        <v>1.353287293432885</v>
       </c>
       <c r="H13">
-        <v>0.6017907277943806</v>
+        <v>1.267321057177256</v>
       </c>
       <c r="I13">
-        <v>0.6521594975227814</v>
+        <v>1.287341178557377</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.374288261737604</v>
+        <v>0.4930525956965255</v>
       </c>
       <c r="L13">
-        <v>0.2382672658727643</v>
+        <v>0.233427651210647</v>
       </c>
       <c r="M13">
-        <v>0.3290935239172441</v>
+        <v>0.1972021020044536</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.473086193230813</v>
+        <v>0.6895422846631618</v>
       </c>
       <c r="C14">
-        <v>0.1285335655729796</v>
+        <v>0.08393851586160395</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04912208606748258</v>
+        <v>0.09656169033940998</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.8646074683245644</v>
+        <v>1.353914115889737</v>
       </c>
       <c r="H14">
-        <v>0.6015963882012585</v>
+        <v>1.268491875173922</v>
       </c>
       <c r="I14">
-        <v>0.6521806137708452</v>
+        <v>1.288676394002302</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.349417016609124</v>
+        <v>0.4860655604841213</v>
       </c>
       <c r="L14">
-        <v>0.2347908832035159</v>
+        <v>0.2327158207268241</v>
       </c>
       <c r="M14">
-        <v>0.3233407760411282</v>
+        <v>0.1957442630864676</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.456593161843159</v>
+        <v>0.6850745900310358</v>
       </c>
       <c r="C15">
-        <v>0.1274771825397352</v>
+        <v>0.08360292997035401</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04894552979598288</v>
+        <v>0.09656381136295877</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.8622575396640997</v>
+        <v>1.354313052735847</v>
       </c>
       <c r="H15">
-        <v>0.6015051900071882</v>
+        <v>1.269219276619026</v>
       </c>
       <c r="I15">
-        <v>0.6522277186012957</v>
+        <v>1.289505878337025</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.334202899433251</v>
+        <v>0.4817873869544655</v>
       </c>
       <c r="L15">
-        <v>0.2326682839253351</v>
+        <v>0.2322818570224996</v>
       </c>
       <c r="M15">
-        <v>0.3198234962670625</v>
+        <v>0.1948527379748413</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.362413850009744</v>
+        <v>0.6595308082148676</v>
       </c>
       <c r="C16">
-        <v>0.1214433336076723</v>
+        <v>0.08167308359568892</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04795328512056152</v>
+        <v>0.0965856084697414</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.8495742958872796</v>
+        <v>1.356828797480617</v>
       </c>
       <c r="H16">
-        <v>0.6013987402980945</v>
+        <v>1.2735446943162</v>
       </c>
       <c r="I16">
-        <v>0.6530081977015882</v>
+        <v>1.294437469028111</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.247309527377809</v>
+        <v>0.4572954908980478</v>
       </c>
       <c r="L16">
-        <v>0.2206048585100859</v>
+        <v>0.2298264919081277</v>
       </c>
       <c r="M16">
-        <v>0.299761725707306</v>
+        <v>0.1897659618332099</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304918033225619</v>
+        <v>0.6439133595579563</v>
       </c>
       <c r="C17">
-        <v>0.1177577062254471</v>
+        <v>0.08048316388797616</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04736154045638052</v>
+        <v>0.09660759712063971</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.8424675269480133</v>
+        <v>1.358576830077197</v>
       </c>
       <c r="H17">
-        <v>0.6016936570521949</v>
+        <v>1.27633826676329</v>
       </c>
       <c r="I17">
-        <v>0.6539286161573656</v>
+        <v>1.297621755085075</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.194245743034799</v>
+        <v>0.4422927265198666</v>
       </c>
       <c r="L17">
-        <v>0.2132899864160294</v>
+        <v>0.2283483593826503</v>
       </c>
       <c r="M17">
-        <v>0.28753397161951</v>
+        <v>0.1866652714607326</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.271943486557007</v>
+        <v>0.6349501885030122</v>
       </c>
       <c r="C18">
-        <v>0.1156430106209996</v>
+        <v>0.07979653757699623</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04702724179714224</v>
+        <v>0.09662341613186953</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.8386180045970093</v>
+        <v>1.359657412722129</v>
       </c>
       <c r="H18">
-        <v>0.6019913814844244</v>
+        <v>1.277996529778363</v>
       </c>
       <c r="I18">
-        <v>0.654614943444038</v>
+        <v>1.299511651967336</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.163806824386057</v>
+        <v>0.4336718109938431</v>
       </c>
       <c r="L18">
-        <v>0.2091126465326028</v>
+        <v>0.2275085397996151</v>
       </c>
       <c r="M18">
-        <v>0.2805283006004302</v>
+        <v>0.1848891739405616</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.260794594839751</v>
+        <v>0.6319187891872105</v>
       </c>
       <c r="C19">
-        <v>0.1149278383395256</v>
+        <v>0.0795636768177701</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04691507794883876</v>
+        <v>0.09662931740375491</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.8373546337971618</v>
+        <v>1.360036181906437</v>
       </c>
       <c r="H19">
-        <v>0.6021137919419317</v>
+        <v>1.278566829793448</v>
       </c>
       <c r="I19">
-        <v>0.6548737798280442</v>
+        <v>1.300161563381174</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.153514149805318</v>
+        <v>0.4307543494572883</v>
       </c>
       <c r="L19">
-        <v>0.2077032824770413</v>
+        <v>0.227225972764316</v>
       </c>
       <c r="M19">
-        <v>0.2781608422693083</v>
+        <v>0.1842890810170914</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.31102851068772</v>
+        <v>0.6455738414871064</v>
       </c>
       <c r="C20">
-        <v>0.1181494965192513</v>
+        <v>0.08061006214711597</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04742390186168244</v>
+        <v>0.09660492824450451</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.8431992003255147</v>
+        <v>1.358382968658773</v>
       </c>
       <c r="H20">
-        <v>0.601648910688084</v>
+        <v>1.276035558818919</v>
       </c>
       <c r="I20">
-        <v>0.6538142762409862</v>
+        <v>1.297276739837457</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.199885832668429</v>
+        <v>0.4438889422095826</v>
       </c>
       <c r="L20">
-        <v>0.2140655311055326</v>
+        <v>0.2285046369384958</v>
       </c>
       <c r="M20">
-        <v>0.2888327603168364</v>
+        <v>0.1869945865329399</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.481001265109938</v>
+        <v>0.6916856997277421</v>
       </c>
       <c r="C21">
-        <v>0.1290405068774305</v>
+        <v>0.08409931931350911</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04920710165469089</v>
+        <v>0.09656084363791528</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.8657485378975309</v>
+        <v>1.353726878662854</v>
       </c>
       <c r="H21">
-        <v>0.6016476428306419</v>
+        <v>1.268145843198354</v>
       </c>
       <c r="I21">
-        <v>0.6521672581540585</v>
+        <v>1.288281785828282</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.356718043522648</v>
+        <v>0.4881174919225657</v>
       </c>
       <c r="L21">
-        <v>0.2358105580357091</v>
+        <v>0.2329244748387396</v>
       </c>
       <c r="M21">
-        <v>0.3250291437202861</v>
+        <v>0.1961721651000872</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.593101326192055</v>
+        <v>0.7219934470418536</v>
       </c>
       <c r="C22">
-        <v>0.1362194539371444</v>
+        <v>0.0863600837735703</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05043033291075183</v>
+        <v>0.09656016814499679</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.8828157007883561</v>
+        <v>1.351354589081808</v>
       </c>
       <c r="H22">
-        <v>0.6028811704980228</v>
+        <v>1.263447846238222</v>
       </c>
       <c r="I22">
-        <v>0.6526055550005339</v>
+        <v>1.282923373690991</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.460103239603285</v>
+        <v>0.5170947492226219</v>
       </c>
       <c r="L22">
-        <v>0.2503218078239513</v>
+        <v>0.2359050270650869</v>
       </c>
       <c r="M22">
-        <v>0.3489690774008096</v>
+        <v>0.2022349260969563</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.533170464942486</v>
+        <v>0.7058021465651052</v>
       </c>
       <c r="C23">
-        <v>0.1323815662629215</v>
+        <v>0.08515526752482572</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04977198647177339</v>
+        <v>0.09655795938264156</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.8734828022391241</v>
+        <v>1.352559282841099</v>
       </c>
       <c r="H23">
-        <v>0.6021051084167368</v>
+        <v>1.265913312068577</v>
       </c>
       <c r="I23">
-        <v>0.6522270736538971</v>
+        <v>1.285735629046258</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.404835563204614</v>
+        <v>0.5016226279860234</v>
       </c>
       <c r="L23">
-        <v>0.2425478103329652</v>
+        <v>0.2343058553237398</v>
       </c>
       <c r="M23">
-        <v>0.3361639410359345</v>
+        <v>0.1989932296991057</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.308265714636178</v>
+        <v>0.6448230892653157</v>
       </c>
       <c r="C24">
-        <v>0.11797235514085</v>
+        <v>0.08055269931372777</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04739568992491527</v>
+        <v>0.09660612494495702</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.8428676771724355</v>
+        <v>1.358470377880508</v>
       </c>
       <c r="H24">
-        <v>0.6016687422988696</v>
+        <v>1.276172250473167</v>
       </c>
       <c r="I24">
-        <v>0.6538654810434039</v>
+        <v>1.297432536801111</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.197335737531887</v>
+        <v>0.4431672794484882</v>
       </c>
       <c r="L24">
-        <v>0.2137148202483417</v>
+        <v>0.2284339527704162</v>
       </c>
       <c r="M24">
-        <v>0.2882455029077704</v>
+        <v>0.1868456828395111</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.069241708342588</v>
+        <v>0.5797973232353115</v>
       </c>
       <c r="C25">
-        <v>0.1026205903175992</v>
+        <v>0.07550330810440187</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04506210422847268</v>
+        <v>0.0967794026278419</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.8188447279907649</v>
+        <v>1.367719100514933</v>
       </c>
       <c r="H25">
-        <v>0.6060496067446053</v>
+        <v>1.289206131550287</v>
       </c>
       <c r="I25">
-        <v>0.6615748224351421</v>
+        <v>1.312281264266502</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.976570609743959</v>
+        <v>0.380431381836047</v>
       </c>
       <c r="L25">
-        <v>0.1837438048030648</v>
+        <v>0.2224965365962817</v>
       </c>
       <c r="M25">
-        <v>0.2375861602694584</v>
+        <v>0.1740234570257435</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5325700330326129</v>
+        <v>0.8955023494814043</v>
       </c>
       <c r="C2">
-        <v>0.07171134690607062</v>
+        <v>0.09140842419351713</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09701186566914544</v>
+        <v>0.04352209944994101</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.376991519755975</v>
+        <v>0.8078851858848708</v>
       </c>
       <c r="H2">
-        <v>1.300496466101066</v>
+        <v>0.6129978965414153</v>
       </c>
       <c r="I2">
-        <v>1.325132537853463</v>
+        <v>0.6717974786263063</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3345138496387108</v>
+        <v>0.8158658797385954</v>
       </c>
       <c r="L2">
-        <v>0.2184663207233086</v>
+        <v>0.1624853569129598</v>
       </c>
       <c r="M2">
-        <v>0.164825157848302</v>
+        <v>0.2009722485336134</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5009736353710537</v>
+        <v>0.778795551194321</v>
       </c>
       <c r="C3">
-        <v>0.06909471166952841</v>
+        <v>0.08383448397572124</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09723511531864659</v>
+        <v>0.04258079660972314</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.384807818900853</v>
+        <v>0.8041981531657427</v>
       </c>
       <c r="H3">
-        <v>1.309205032845469</v>
+        <v>0.6198261904428222</v>
       </c>
       <c r="I3">
-        <v>1.335038009770244</v>
+        <v>0.6813065028925145</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3035680431421497</v>
+        <v>0.7077531258083809</v>
       </c>
       <c r="L3">
-        <v>0.215948427421857</v>
+        <v>0.1485094019124702</v>
       </c>
       <c r="M3">
-        <v>0.1587435054090882</v>
+        <v>0.1764976541828958</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4817774397117489</v>
+        <v>0.7075391120567929</v>
       </c>
       <c r="C4">
-        <v>0.06746485726785068</v>
+        <v>0.07918661128915261</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09740470357287734</v>
+        <v>0.04205064726467178</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.390361661925581</v>
+        <v>0.8036403253315711</v>
       </c>
       <c r="H4">
-        <v>1.315073714672465</v>
+        <v>0.6250025155092942</v>
       </c>
       <c r="I4">
-        <v>1.341709805329064</v>
+        <v>0.6883405047101085</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2846535573075499</v>
+        <v>0.6416600173187703</v>
       </c>
       <c r="L4">
-        <v>0.2145079094339408</v>
+        <v>0.140118463559169</v>
       </c>
       <c r="M4">
-        <v>0.1550847539822477</v>
+        <v>0.1616105705427238</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4740066255261866</v>
+        <v>0.6785877979240524</v>
       </c>
       <c r="C5">
-        <v>0.06679482544931403</v>
+        <v>0.07729190802133701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09748200461575429</v>
+        <v>0.04184625914586704</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.392814494098246</v>
+        <v>0.8038225836837967</v>
       </c>
       <c r="H5">
-        <v>1.317596442192482</v>
+        <v>0.6273506411404668</v>
       </c>
       <c r="I5">
-        <v>1.344576903353701</v>
+        <v>0.6914966153017659</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2769677922792795</v>
+        <v>0.6147849021954244</v>
       </c>
       <c r="L5">
-        <v>0.2139474631806735</v>
+        <v>0.1367438950783111</v>
       </c>
       <c r="M5">
-        <v>0.1536128385240936</v>
+        <v>0.1555756365505268</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.47271942954103</v>
+        <v>0.6737852478703417</v>
       </c>
       <c r="C6">
-        <v>0.06668321334144167</v>
+        <v>0.07697721786784939</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0974953357002164</v>
+        <v>0.04181301390386061</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.393233231608662</v>
+        <v>0.8038770369457779</v>
       </c>
       <c r="H6">
-        <v>1.318023263887738</v>
+        <v>0.6277547207334067</v>
       </c>
       <c r="I6">
-        <v>1.345061938349119</v>
+        <v>0.692037874214158</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2756929177223668</v>
+        <v>0.6103254360539694</v>
       </c>
       <c r="L6">
-        <v>0.2138560082309908</v>
+        <v>0.1361861704709781</v>
       </c>
       <c r="M6">
-        <v>0.1533695817527203</v>
+        <v>0.1545753510562129</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4816724294749406</v>
+        <v>0.7071483341844953</v>
       </c>
       <c r="C7">
-        <v>0.06745584469685184</v>
+        <v>0.07916106297771819</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09740571288795508</v>
+        <v>0.04204784411338025</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.390393974219378</v>
+        <v>0.8036411498678007</v>
       </c>
       <c r="H7">
-        <v>1.315107205823622</v>
+        <v>0.6250332276075596</v>
       </c>
       <c r="I7">
-        <v>1.341747871638013</v>
+        <v>0.6883819101300865</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2845498147147509</v>
+        <v>0.6412973519527299</v>
       </c>
       <c r="L7">
-        <v>0.2145002433813517</v>
+        <v>0.1400727754500863</v>
       </c>
       <c r="M7">
-        <v>0.1550648259361616</v>
+        <v>0.1615290577209869</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5216334965336387</v>
+        <v>0.8551691750881787</v>
       </c>
       <c r="C8">
-        <v>0.0708139447546543</v>
+        <v>0.08879558746257032</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09708210436678932</v>
+        <v>0.04318738472183803</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.379529867056149</v>
+        <v>0.8062477949513038</v>
       </c>
       <c r="H8">
-        <v>1.303390945210637</v>
+        <v>0.615142776151302</v>
       </c>
       <c r="I8">
-        <v>1.328425519211031</v>
+        <v>0.6748213386131461</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3238259946662367</v>
+        <v>0.7785198673744844</v>
       </c>
       <c r="L8">
-        <v>0.2175762894750974</v>
+        <v>0.1576250424986014</v>
       </c>
       <c r="M8">
-        <v>0.1627126069354006</v>
+        <v>0.1925020043771966</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6016007230618925</v>
+        <v>1.149355537521274</v>
       </c>
       <c r="C9">
-        <v>0.07721564099557554</v>
+        <v>0.107773095584669</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09670477869301486</v>
+        <v>0.0458192641151669</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.364220585244894</v>
+        <v>0.8258274484346231</v>
       </c>
       <c r="H9">
-        <v>1.284552643516648</v>
+        <v>0.6039670815951155</v>
       </c>
       <c r="I9">
-        <v>1.306981394634171</v>
+        <v>0.6582358623708515</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4015215805349328</v>
+        <v>1.050599659266368</v>
       </c>
       <c r="L9">
-        <v>0.2244435680668531</v>
+        <v>0.1937035684403128</v>
       </c>
       <c r="M9">
-        <v>0.178305041710594</v>
+        <v>0.2545316727251148</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6613155085839537</v>
+        <v>1.368987997736468</v>
       </c>
       <c r="C10">
-        <v>0.08180856166585215</v>
+        <v>0.1218646397094005</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0965835288228476</v>
+        <v>0.04802164078600235</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.356639524202023</v>
+        <v>0.8504181769492334</v>
       </c>
       <c r="H10">
-        <v>1.273232903212673</v>
+        <v>0.6013827519855255</v>
       </c>
       <c r="I10">
-        <v>1.294082031993348</v>
+        <v>0.6529248195133164</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4590085242639077</v>
+        <v>1.253376091938719</v>
       </c>
       <c r="L10">
-        <v>0.2299965601603446</v>
+        <v>0.221443705776764</v>
       </c>
       <c r="M10">
-        <v>0.1901207641981486</v>
+        <v>0.3011608406142159</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6886876983664365</v>
+        <v>1.469930866809364</v>
       </c>
       <c r="C11">
-        <v>0.08387436762549783</v>
+        <v>0.1283314708662999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09656205866543743</v>
+        <v>0.04908824622029329</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.353989515841718</v>
+        <v>0.8641549876011538</v>
       </c>
       <c r="H11">
-        <v>1.268630369126981</v>
+        <v>0.6015773058874601</v>
       </c>
       <c r="I11">
-        <v>1.288834327234902</v>
+        <v>0.6521876060004388</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4852473483947506</v>
+        <v>1.346506426160659</v>
       </c>
       <c r="L11">
-        <v>0.2326327117797291</v>
+        <v>0.2343845778719356</v>
       </c>
       <c r="M11">
-        <v>0.1955736905285903</v>
+        <v>0.3226677859888554</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6990823250916662</v>
+        <v>1.508327431578891</v>
       </c>
       <c r="C12">
-        <v>0.08465326862983602</v>
+        <v>0.1307905956735169</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09655875678478765</v>
+        <v>0.04950201447399571</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.353101071585371</v>
+        <v>0.8697538192359531</v>
       </c>
       <c r="H12">
-        <v>1.266966131508042</v>
+        <v>0.6018615327229497</v>
       </c>
       <c r="I12">
-        <v>1.286936396056419</v>
+        <v>0.6521667885366469</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4951956889036921</v>
+        <v>1.381922880533068</v>
       </c>
       <c r="L12">
-        <v>0.2336467414921657</v>
+        <v>0.2393359868171814</v>
       </c>
       <c r="M12">
-        <v>0.1976497001880944</v>
+        <v>0.3308601272461544</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6968423575866325</v>
+        <v>1.500050014446657</v>
       </c>
       <c r="C13">
-        <v>0.08448566830638526</v>
+        <v>0.1302604857481384</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09655925340987892</v>
+        <v>0.04941245385809268</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.353287293432885</v>
+        <v>0.8685298458758552</v>
       </c>
       <c r="H13">
-        <v>1.267321057177256</v>
+        <v>0.6017907277944801</v>
       </c>
       <c r="I13">
-        <v>1.287341178557377</v>
+        <v>0.6521594975227529</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4930525956965255</v>
+        <v>1.374288261737604</v>
       </c>
       <c r="L13">
-        <v>0.233427651210647</v>
+        <v>0.2382672658727927</v>
       </c>
       <c r="M13">
-        <v>0.1972021020044536</v>
+        <v>0.3290935239172228</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6895422846631618</v>
+        <v>1.473086193230756</v>
       </c>
       <c r="C14">
-        <v>0.08393851586160395</v>
+        <v>0.128533565572738</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09656169033940998</v>
+        <v>0.04912208606748081</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.353914115889737</v>
+        <v>0.8646074683245786</v>
       </c>
       <c r="H14">
-        <v>1.268491875173922</v>
+        <v>0.6015963882012585</v>
       </c>
       <c r="I14">
-        <v>1.288676394002302</v>
+        <v>0.6521806137708168</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4860655604841213</v>
+        <v>1.349417016609152</v>
       </c>
       <c r="L14">
-        <v>0.2327158207268241</v>
+        <v>0.2347908832035586</v>
       </c>
       <c r="M14">
-        <v>0.1957442630864676</v>
+        <v>0.3233407760411495</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6850745900310358</v>
+        <v>1.456593161843131</v>
       </c>
       <c r="C15">
-        <v>0.08360292997035401</v>
+        <v>0.1274771825393799</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09656381136295877</v>
+        <v>0.04894552979597577</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.354313052735847</v>
+        <v>0.862257539664057</v>
       </c>
       <c r="H15">
-        <v>1.269219276619026</v>
+        <v>0.6015051900072166</v>
       </c>
       <c r="I15">
-        <v>1.289505878337025</v>
+        <v>0.6522277186013525</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4817873869544655</v>
+        <v>1.334202899433194</v>
       </c>
       <c r="L15">
-        <v>0.2322818570224996</v>
+        <v>0.2326682839253493</v>
       </c>
       <c r="M15">
-        <v>0.1948527379748413</v>
+        <v>0.3198234962670554</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6595308082148676</v>
+        <v>1.362413850009773</v>
       </c>
       <c r="C16">
-        <v>0.08167308359568892</v>
+        <v>0.1214433336076866</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0965856084697414</v>
+        <v>0.04795328512057395</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.356828797480617</v>
+        <v>0.8495742958872938</v>
       </c>
       <c r="H16">
-        <v>1.2735446943162</v>
+        <v>0.6013987402980518</v>
       </c>
       <c r="I16">
-        <v>1.294437469028111</v>
+        <v>0.653008197701574</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4572954908980478</v>
+        <v>1.247309527377951</v>
       </c>
       <c r="L16">
-        <v>0.2298264919081277</v>
+        <v>0.2206048585100859</v>
       </c>
       <c r="M16">
-        <v>0.1897659618332099</v>
+        <v>0.2997617257072918</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6439133595579563</v>
+        <v>1.304918033225732</v>
       </c>
       <c r="C17">
-        <v>0.08048316388797616</v>
+        <v>0.1177577062252197</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09660759712063971</v>
+        <v>0.04736154045636454</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.358576830077197</v>
+        <v>0.8424675269479991</v>
       </c>
       <c r="H17">
-        <v>1.27633826676329</v>
+        <v>0.6016936570521949</v>
       </c>
       <c r="I17">
-        <v>1.297621755085075</v>
+        <v>0.6539286161573585</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4422927265198666</v>
+        <v>1.194245743034799</v>
       </c>
       <c r="L17">
-        <v>0.2283483593826503</v>
+        <v>0.2132899864159299</v>
       </c>
       <c r="M17">
-        <v>0.1866652714607326</v>
+        <v>0.28753397161951</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6349501885030122</v>
+        <v>1.271943486557205</v>
       </c>
       <c r="C18">
-        <v>0.07979653757699623</v>
+        <v>0.1156430106213548</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09662341613186953</v>
+        <v>0.0470272417971298</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.359657412722129</v>
+        <v>0.8386180045970093</v>
       </c>
       <c r="H18">
-        <v>1.277996529778363</v>
+        <v>0.6019913814844244</v>
       </c>
       <c r="I18">
-        <v>1.299511651967336</v>
+        <v>0.654614943444038</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4336718109938431</v>
+        <v>1.163806824385972</v>
       </c>
       <c r="L18">
-        <v>0.2275085397996151</v>
+        <v>0.2091126465326028</v>
       </c>
       <c r="M18">
-        <v>0.1848891739405616</v>
+        <v>0.280528300600416</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6319187891872105</v>
+        <v>1.260794594839723</v>
       </c>
       <c r="C19">
-        <v>0.0795636768177701</v>
+        <v>0.1149278383395256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09662931740375491</v>
+        <v>0.0469150779488352</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.360036181906437</v>
+        <v>0.8373546337971618</v>
       </c>
       <c r="H19">
-        <v>1.278566829793448</v>
+        <v>0.6021137919419317</v>
       </c>
       <c r="I19">
-        <v>1.300161563381174</v>
+        <v>0.6548737798280655</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4307543494572883</v>
+        <v>1.153514149805346</v>
       </c>
       <c r="L19">
-        <v>0.227225972764316</v>
+        <v>0.2077032824770271</v>
       </c>
       <c r="M19">
-        <v>0.1842890810170914</v>
+        <v>0.2781608422693154</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6455738414871064</v>
+        <v>1.311028510687748</v>
       </c>
       <c r="C20">
-        <v>0.08061006214711597</v>
+        <v>0.1181494965191376</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09660492824450451</v>
+        <v>0.04742390186166112</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.358382968658773</v>
+        <v>0.8431992003255715</v>
       </c>
       <c r="H20">
-        <v>1.276035558818919</v>
+        <v>0.601648910688084</v>
       </c>
       <c r="I20">
-        <v>1.297276739837457</v>
+        <v>0.6538142762410217</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4438889422095826</v>
+        <v>1.199885832668485</v>
       </c>
       <c r="L20">
-        <v>0.2285046369384958</v>
+        <v>0.2140655311053337</v>
       </c>
       <c r="M20">
-        <v>0.1869945865329399</v>
+        <v>0.288832760316815</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6916856997277421</v>
+        <v>1.481001265109853</v>
       </c>
       <c r="C21">
-        <v>0.08409931931350911</v>
+        <v>0.1290405068775442</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09656084363791528</v>
+        <v>0.04920710165468734</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.353726878662854</v>
+        <v>0.8657485378976162</v>
       </c>
       <c r="H21">
-        <v>1.268145843198354</v>
+        <v>0.6016476428306561</v>
       </c>
       <c r="I21">
-        <v>1.288281785828282</v>
+        <v>0.6521672581541083</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4881174919225657</v>
+        <v>1.356718043522648</v>
       </c>
       <c r="L21">
-        <v>0.2329244748387396</v>
+        <v>0.2358105580356806</v>
       </c>
       <c r="M21">
-        <v>0.1961721651000872</v>
+        <v>0.3250291437202932</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7219934470418536</v>
+        <v>1.59310132619197</v>
       </c>
       <c r="C22">
-        <v>0.0863600837735703</v>
+        <v>0.1362194539368886</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09656016814499679</v>
+        <v>0.05043033291074828</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.351354589081808</v>
+        <v>0.8828157007884414</v>
       </c>
       <c r="H22">
-        <v>1.263447846238222</v>
+        <v>0.6028811704978807</v>
       </c>
       <c r="I22">
-        <v>1.282923373690991</v>
+        <v>0.6526055550005196</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5170947492226219</v>
+        <v>1.460103239603256</v>
       </c>
       <c r="L22">
-        <v>0.2359050270650869</v>
+        <v>0.2503218078239371</v>
       </c>
       <c r="M22">
-        <v>0.2022349260969563</v>
+        <v>0.3489690774008025</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7058021465651052</v>
+        <v>1.53317046494243</v>
       </c>
       <c r="C23">
-        <v>0.08515526752482572</v>
+        <v>0.1323815662627936</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09655795938264156</v>
+        <v>0.04977198647175918</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.352559282841099</v>
+        <v>0.8734828022391952</v>
       </c>
       <c r="H23">
-        <v>1.265913312068577</v>
+        <v>0.6021051084167226</v>
       </c>
       <c r="I23">
-        <v>1.285735629046258</v>
+        <v>0.6522270736538971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5016226279860234</v>
+        <v>1.404835563204557</v>
       </c>
       <c r="L23">
-        <v>0.2343058553237398</v>
+        <v>0.2425478103328942</v>
       </c>
       <c r="M23">
-        <v>0.1989932296991057</v>
+        <v>0.3361639410359416</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6448230892653157</v>
+        <v>1.30826571463632</v>
       </c>
       <c r="C24">
-        <v>0.08055269931372777</v>
+        <v>0.1179723551411911</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09660612494495702</v>
+        <v>0.04739568992490817</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.358470377880508</v>
+        <v>0.8428676771724497</v>
       </c>
       <c r="H24">
-        <v>1.276172250473167</v>
+        <v>0.6016687422987701</v>
       </c>
       <c r="I24">
-        <v>1.297432536801111</v>
+        <v>0.6538654810434039</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4431672794484882</v>
+        <v>1.197335737531972</v>
       </c>
       <c r="L24">
-        <v>0.2284339527704162</v>
+        <v>0.213714820248228</v>
       </c>
       <c r="M24">
-        <v>0.1868456828395111</v>
+        <v>0.2882455029077491</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5797973232353115</v>
+        <v>1.06924170834256</v>
       </c>
       <c r="C25">
-        <v>0.07550330810440187</v>
+        <v>0.1026205903180681</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0967794026278419</v>
+        <v>0.04506210422848689</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.367719100514933</v>
+        <v>0.8188447279907081</v>
       </c>
       <c r="H25">
-        <v>1.289206131550287</v>
+        <v>0.6060496067444774</v>
       </c>
       <c r="I25">
-        <v>1.312281264266502</v>
+        <v>0.6615748224351208</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.380431381836047</v>
+        <v>0.9765706097439022</v>
       </c>
       <c r="L25">
-        <v>0.2224965365962817</v>
+        <v>0.1837438048029583</v>
       </c>
       <c r="M25">
-        <v>0.1740234570257435</v>
+        <v>0.2375861602694656</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8955023494814043</v>
+        <v>3.483371748763375</v>
       </c>
       <c r="C2">
-        <v>0.09140842419351713</v>
+        <v>0.9946896032074903</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04352209944994101</v>
+        <v>1.198307551375521</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.86624533821805</v>
       </c>
       <c r="G2">
-        <v>0.8078851858848708</v>
+        <v>0.105633732203593</v>
       </c>
       <c r="H2">
-        <v>0.6129978965414153</v>
+        <v>0.001894387242918683</v>
       </c>
       <c r="I2">
-        <v>0.6717974786263063</v>
+        <v>0.005270447037489134</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1350629149657792</v>
       </c>
       <c r="K2">
-        <v>0.8158658797385954</v>
+        <v>0.09574572606212906</v>
       </c>
       <c r="L2">
-        <v>0.1624853569129598</v>
+        <v>0.03007775886285557</v>
       </c>
       <c r="M2">
-        <v>0.2009722485336134</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.4570226711763041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.778795551194321</v>
+        <v>3.040230768695153</v>
       </c>
       <c r="C3">
-        <v>0.08383448397572124</v>
+        <v>0.8794295780452615</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04258079660972314</v>
+        <v>1.060717744395134</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.687999582618204</v>
       </c>
       <c r="G3">
-        <v>0.8041981531657427</v>
+        <v>0.1040157100900636</v>
       </c>
       <c r="H3">
-        <v>0.6198261904428222</v>
+        <v>0.0006990420850638834</v>
       </c>
       <c r="I3">
-        <v>0.6813065028925145</v>
+        <v>0.003752525435001708</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1394950423585612</v>
       </c>
       <c r="K3">
-        <v>0.7077531258083809</v>
+        <v>0.1060523089373921</v>
       </c>
       <c r="L3">
-        <v>0.1485094019124702</v>
+        <v>0.02753941377483038</v>
       </c>
       <c r="M3">
-        <v>0.1764976541828958</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.4625735164810152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7075391120567929</v>
+        <v>2.767555839848001</v>
       </c>
       <c r="C4">
-        <v>0.07918661128915261</v>
+        <v>0.8090476531602633</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04205064726467178</v>
+        <v>0.9763649524569473</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.579384233506715</v>
       </c>
       <c r="G4">
-        <v>0.8036403253315711</v>
+        <v>0.1034607473091675</v>
       </c>
       <c r="H4">
-        <v>0.6250025155092942</v>
+        <v>0.0002425191850472519</v>
       </c>
       <c r="I4">
-        <v>0.6883405047101085</v>
+        <v>0.002959979186005768</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1425135152118777</v>
       </c>
       <c r="K4">
-        <v>0.6416600173187703</v>
+        <v>0.1128179357028851</v>
       </c>
       <c r="L4">
-        <v>0.140118463559169</v>
+        <v>0.02597228415254715</v>
       </c>
       <c r="M4">
-        <v>0.1616105705427238</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.4675266827102789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6785877979240524</v>
+        <v>2.656255595170705</v>
       </c>
       <c r="C5">
-        <v>0.07729190802133701</v>
+        <v>0.7817610744094736</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04184625914586704</v>
+        <v>0.9424054184271995</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.534807904669279</v>
       </c>
       <c r="G5">
-        <v>0.8038225836837967</v>
+        <v>0.1030851344733179</v>
       </c>
       <c r="H5">
-        <v>0.6273506411404668</v>
+        <v>0.0001219795519467048</v>
       </c>
       <c r="I5">
-        <v>0.6914966153017659</v>
+        <v>0.002725492569715549</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1436752051735581</v>
       </c>
       <c r="K5">
-        <v>0.6147849021954244</v>
+        <v>0.1156714681396016</v>
       </c>
       <c r="L5">
-        <v>0.1367438950783111</v>
+        <v>0.02531118927737452</v>
       </c>
       <c r="M5">
-        <v>0.1555756365505268</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.4690831647031288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6737852478703417</v>
+        <v>2.637735057107932</v>
       </c>
       <c r="C6">
-        <v>0.07697721786784939</v>
+        <v>0.7788355883893132</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04181301390386061</v>
+        <v>0.9372487847367665</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.526805509401598</v>
       </c>
       <c r="G6">
-        <v>0.8038770369457779</v>
+        <v>0.1027205439548027</v>
       </c>
       <c r="H6">
-        <v>0.6277547207334067</v>
+        <v>0.0001057046228503111</v>
       </c>
       <c r="I6">
-        <v>0.692037874214158</v>
+        <v>0.002764541964273448</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1437015072667585</v>
       </c>
       <c r="K6">
-        <v>0.6103254360539694</v>
+        <v>0.1161420877049384</v>
       </c>
       <c r="L6">
-        <v>0.1361861704709781</v>
+        <v>0.02517739332640012</v>
       </c>
       <c r="M6">
-        <v>0.1545753510562129</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.4683516874570799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7071483341844953</v>
+        <v>2.765975664952009</v>
       </c>
       <c r="C7">
-        <v>0.07916106297771819</v>
+        <v>0.8130618214399874</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04204784411338025</v>
+        <v>0.9772233934233583</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.577112994630724</v>
       </c>
       <c r="G7">
-        <v>0.8036411498678007</v>
+        <v>0.102613953838631</v>
       </c>
       <c r="H7">
-        <v>0.6250332276075596</v>
+        <v>0.0002401939250606944</v>
       </c>
       <c r="I7">
-        <v>0.6883819101300865</v>
+        <v>0.003150334450557679</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1420637039716866</v>
       </c>
       <c r="K7">
-        <v>0.6412973519527299</v>
+        <v>0.1128340409337394</v>
       </c>
       <c r="L7">
-        <v>0.1400727754500863</v>
+        <v>0.02589804949422181</v>
       </c>
       <c r="M7">
-        <v>0.1615290577209869</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.4647878409639432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8551691750881787</v>
+        <v>3.33058571127151</v>
       </c>
       <c r="C8">
-        <v>0.08879558746257032</v>
+        <v>0.9607221875575931</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04318738472183803</v>
+        <v>1.152585378716452</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.802388560977462</v>
       </c>
       <c r="G8">
-        <v>0.8062477949513038</v>
+        <v>0.1038730116432518</v>
       </c>
       <c r="H8">
-        <v>0.615142776151302</v>
+        <v>0.001420834024806306</v>
       </c>
       <c r="I8">
-        <v>0.6748213386131461</v>
+        <v>0.004948252313244694</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1359192220491963</v>
       </c>
       <c r="K8">
-        <v>0.7785198673744844</v>
+        <v>0.09919880598758368</v>
       </c>
       <c r="L8">
-        <v>0.1576250424986014</v>
+        <v>0.0291162248273249</v>
       </c>
       <c r="M8">
-        <v>0.1925020043771966</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.4549804656938079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.149355537521274</v>
+        <v>4.433946221219912</v>
       </c>
       <c r="C9">
-        <v>0.107773095584669</v>
+        <v>1.245815271461254</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0458192641151669</v>
+        <v>1.495608152393515</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>2.25485745199019</v>
       </c>
       <c r="G9">
-        <v>0.8258274484346231</v>
+        <v>0.1116579355985792</v>
       </c>
       <c r="H9">
-        <v>0.6039670815951155</v>
+        <v>0.006135385216882616</v>
       </c>
       <c r="I9">
-        <v>0.6582358623708515</v>
+        <v>0.009421821872224179</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1271966324927334</v>
       </c>
       <c r="K9">
-        <v>1.050599659266368</v>
+        <v>0.07614563527180351</v>
       </c>
       <c r="L9">
-        <v>0.1937035684403128</v>
+        <v>0.03551684767801966</v>
       </c>
       <c r="M9">
-        <v>0.2545316727251148</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.453930619782156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.368987997736468</v>
+        <v>5.242749982542591</v>
       </c>
       <c r="C10">
-        <v>0.1218646397094005</v>
+        <v>1.457972062444981</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04802164078600235</v>
+        <v>1.701479567083013</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.539882647666872</v>
       </c>
       <c r="G10">
-        <v>0.8504181769492334</v>
+        <v>0.1173798363764078</v>
       </c>
       <c r="H10">
-        <v>0.6013827519855255</v>
+        <v>0.01109795019730075</v>
       </c>
       <c r="I10">
-        <v>0.6529248195133164</v>
+        <v>0.01369132000851714</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.12113880753693</v>
       </c>
       <c r="K10">
-        <v>1.253376091938719</v>
+        <v>0.06199898768736389</v>
       </c>
       <c r="L10">
-        <v>0.221443705776764</v>
+        <v>0.03842328448844157</v>
       </c>
       <c r="M10">
-        <v>0.3011608406142159</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.4538589601432648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469930866809364</v>
+        <v>5.606580139202663</v>
       </c>
       <c r="C11">
-        <v>0.1283314708662999</v>
+        <v>1.542631676416363</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04908824622029329</v>
+        <v>1.39864854131217</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.223736637751671</v>
       </c>
       <c r="G11">
-        <v>0.8641549876011538</v>
+        <v>0.09924268271258541</v>
       </c>
       <c r="H11">
-        <v>0.6015773058874601</v>
+        <v>0.02883956118347442</v>
       </c>
       <c r="I11">
-        <v>0.6521876060004388</v>
+        <v>0.01563236163122905</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.108241032919004</v>
       </c>
       <c r="K11">
-        <v>1.346506426160659</v>
+        <v>0.0590482219065871</v>
       </c>
       <c r="L11">
-        <v>0.2343845778719356</v>
+        <v>0.03201681609192342</v>
       </c>
       <c r="M11">
-        <v>0.3226677859888554</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.3885542349202922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.508327431578891</v>
+        <v>5.742814746121837</v>
       </c>
       <c r="C12">
-        <v>0.1307905956735169</v>
+        <v>1.561384940984624</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04950201447399571</v>
+        <v>1.1269032985807</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.918662449957282</v>
       </c>
       <c r="G12">
-        <v>0.8697538192359531</v>
+        <v>0.08471246570006485</v>
       </c>
       <c r="H12">
-        <v>0.6018615327229497</v>
+        <v>0.06632945798386913</v>
       </c>
       <c r="I12">
-        <v>0.6521667885366469</v>
+        <v>0.01599857109499414</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09953509858036824</v>
       </c>
       <c r="K12">
-        <v>1.381922880533068</v>
+        <v>0.06019671738443133</v>
       </c>
       <c r="L12">
-        <v>0.2393359868171814</v>
+        <v>0.03687367186525492</v>
       </c>
       <c r="M12">
-        <v>0.3308601272461544</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.339553828219735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.500050014446657</v>
+        <v>5.710343714765088</v>
       </c>
       <c r="C13">
-        <v>0.1302604857481384</v>
+        <v>1.537328688529499</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04941245385809268</v>
+        <v>0.8668169480220342</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.603550797528996</v>
       </c>
       <c r="G13">
-        <v>0.8685298458758552</v>
+        <v>0.07071003382148788</v>
       </c>
       <c r="H13">
-        <v>0.6017907277944801</v>
+        <v>0.1205581986913273</v>
       </c>
       <c r="I13">
-        <v>0.6521594975227529</v>
+        <v>0.01543224546137356</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09275559865616145</v>
       </c>
       <c r="K13">
-        <v>1.374288261737604</v>
+        <v>0.06434793910053926</v>
       </c>
       <c r="L13">
-        <v>0.2382672658727927</v>
+        <v>0.05035044237658681</v>
       </c>
       <c r="M13">
-        <v>0.3290935239172228</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.2956155271758973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.473086193230756</v>
+        <v>5.611129744271352</v>
       </c>
       <c r="C14">
-        <v>0.128533565572738</v>
+        <v>1.502546240578056</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04912208606748081</v>
+        <v>0.6957605837088181</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.382796677155596</v>
       </c>
       <c r="G14">
-        <v>0.8646074683245786</v>
+        <v>0.06119591981044437</v>
       </c>
       <c r="H14">
-        <v>0.6015963882012585</v>
+        <v>0.1687761299089914</v>
       </c>
       <c r="I14">
-        <v>0.6521806137708168</v>
+        <v>0.01469994093044935</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0888667853937406</v>
       </c>
       <c r="K14">
-        <v>1.349417016609152</v>
+        <v>0.06876255248955054</v>
       </c>
       <c r="L14">
-        <v>0.2347908832035586</v>
+        <v>0.06496531127949012</v>
       </c>
       <c r="M14">
-        <v>0.3233407760411495</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.2672212807145726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.456593161843131</v>
+        <v>5.550953204616121</v>
       </c>
       <c r="C15">
-        <v>0.1274771825393799</v>
+        <v>1.486891995175142</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04894552979597577</v>
+        <v>0.6535166842988218</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.324463522038798</v>
       </c>
       <c r="G15">
-        <v>0.862257539664057</v>
+        <v>0.05868713034323392</v>
       </c>
       <c r="H15">
-        <v>0.6015051900072166</v>
+        <v>0.1808749836261683</v>
       </c>
       <c r="I15">
-        <v>0.6522277186013525</v>
+        <v>0.01442226868928476</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08817750333658481</v>
       </c>
       <c r="K15">
-        <v>1.334202899433194</v>
+        <v>0.07048353254435824</v>
       </c>
       <c r="L15">
-        <v>0.2326682839253493</v>
+        <v>0.06895185676985705</v>
       </c>
       <c r="M15">
-        <v>0.3198234962670554</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.2604192079166268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.362413850009773</v>
+        <v>5.208375431930108</v>
       </c>
       <c r="C16">
-        <v>0.1214433336076866</v>
+        <v>1.403248526165441</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04795328512057395</v>
+        <v>0.6265260648936675</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.273707040210397</v>
       </c>
       <c r="G16">
-        <v>0.8495742958872938</v>
+        <v>0.05839184049782986</v>
       </c>
       <c r="H16">
-        <v>0.6013987402980518</v>
+        <v>0.1665352277088488</v>
       </c>
       <c r="I16">
-        <v>0.653008197701574</v>
+        <v>0.01272484676040797</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.09165529448191378</v>
       </c>
       <c r="K16">
-        <v>1.247309527377951</v>
+        <v>0.07498777172293458</v>
       </c>
       <c r="L16">
-        <v>0.2206048585100859</v>
+        <v>0.06470699308198746</v>
       </c>
       <c r="M16">
-        <v>0.2997617257072918</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2668812273674206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304918033225732</v>
+        <v>4.998963426238788</v>
       </c>
       <c r="C17">
-        <v>0.1177577062252197</v>
+        <v>1.357899209357811</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04736154045636454</v>
+        <v>0.6928262879391625</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>1.348809680447658</v>
       </c>
       <c r="G17">
-        <v>0.8424675269479991</v>
+        <v>0.06316967741202717</v>
       </c>
       <c r="H17">
-        <v>0.6016936570521949</v>
+        <v>0.128088167321124</v>
       </c>
       <c r="I17">
-        <v>0.6539286161573585</v>
+        <v>0.01185258551107005</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09640216159809967</v>
       </c>
       <c r="K17">
-        <v>1.194245743034799</v>
+        <v>0.076183756743335</v>
       </c>
       <c r="L17">
-        <v>0.2132899864159299</v>
+        <v>0.05280099297192109</v>
       </c>
       <c r="M17">
-        <v>0.28753397161951</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.2868437464111082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.271943486557205</v>
+        <v>4.879748081249545</v>
       </c>
       <c r="C18">
-        <v>0.1156430106213548</v>
+        <v>1.336108001089826</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0470272417971298</v>
+        <v>0.8614193287726124</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.552426711153814</v>
       </c>
       <c r="G18">
-        <v>0.8386180045970093</v>
+        <v>0.07370550185005698</v>
       </c>
       <c r="H18">
-        <v>0.6019913814844244</v>
+        <v>0.07544728614915641</v>
       </c>
       <c r="I18">
-        <v>0.654614943444038</v>
+        <v>0.01131067584319023</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1031668820077734</v>
       </c>
       <c r="K18">
-        <v>1.163806824385972</v>
+        <v>0.07472310714655794</v>
       </c>
       <c r="L18">
-        <v>0.2091126465326028</v>
+        <v>0.03797143709179451</v>
       </c>
       <c r="M18">
-        <v>0.280528300600416</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.3233060091003281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.260794594839723</v>
+        <v>4.841200208675559</v>
       </c>
       <c r="C19">
-        <v>0.1149278383395256</v>
+        <v>1.343296231889099</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0469150779488352</v>
+        <v>1.126307057558762</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.860380043928359</v>
       </c>
       <c r="G19">
-        <v>0.8373546337971618</v>
+        <v>0.08768560114385338</v>
       </c>
       <c r="H19">
-        <v>0.6021137919419317</v>
+        <v>0.03138507870644958</v>
       </c>
       <c r="I19">
-        <v>0.6548737798280655</v>
+        <v>0.01154309462015046</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1106731934420253</v>
       </c>
       <c r="K19">
-        <v>1.153514149805346</v>
+        <v>0.07221364116121531</v>
       </c>
       <c r="L19">
-        <v>0.2077032824770271</v>
+        <v>0.02948258347781252</v>
       </c>
       <c r="M19">
-        <v>0.2781608422693154</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.3686822754158356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.311028510687748</v>
+        <v>5.030179397637937</v>
       </c>
       <c r="C20">
-        <v>0.1181494965191376</v>
+        <v>1.4161431878195</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04742390186166112</v>
+        <v>1.649465149126073</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.457243475093037</v>
       </c>
       <c r="G20">
-        <v>0.8431992003255715</v>
+        <v>0.1130258957730987</v>
       </c>
       <c r="H20">
-        <v>0.601648910688084</v>
+        <v>0.009637641739879577</v>
       </c>
       <c r="I20">
-        <v>0.6538142762410217</v>
+        <v>0.01313633377265511</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1211724735580617</v>
       </c>
       <c r="K20">
-        <v>1.199885832668485</v>
+        <v>0.06567706775768256</v>
       </c>
       <c r="L20">
-        <v>0.2140655311053337</v>
+        <v>0.03737506188177875</v>
       </c>
       <c r="M20">
-        <v>0.288832760316815</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.4445736877684539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.481001265109853</v>
+        <v>5.651398210394746</v>
       </c>
       <c r="C21">
-        <v>0.1290405068775442</v>
+        <v>1.580504555805703</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04920710165468734</v>
+        <v>1.882212542333832</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.761382723932996</v>
       </c>
       <c r="G21">
-        <v>0.8657485378976162</v>
+        <v>0.1227512565311386</v>
       </c>
       <c r="H21">
-        <v>0.6016476428306561</v>
+        <v>0.01447601839167223</v>
       </c>
       <c r="I21">
-        <v>0.6521672581541083</v>
+        <v>0.01673756392312065</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1192676453207113</v>
       </c>
       <c r="K21">
-        <v>1.356718043522648</v>
+        <v>0.05539375972962812</v>
       </c>
       <c r="L21">
-        <v>0.2358105580356806</v>
+        <v>0.0424556422322766</v>
       </c>
       <c r="M21">
-        <v>0.3250291437202932</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.4615750094046547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.59310132619197</v>
+        <v>6.057408932522492</v>
       </c>
       <c r="C22">
-        <v>0.1362194539368886</v>
+        <v>1.681547320809329</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05043033291074828</v>
+        <v>2.008466333300277</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.937154344227793</v>
       </c>
       <c r="G22">
-        <v>0.8828157007884414</v>
+        <v>0.1296189025194749</v>
       </c>
       <c r="H22">
-        <v>0.6028811704978807</v>
+        <v>0.01792005918681894</v>
       </c>
       <c r="I22">
-        <v>0.6526055550005196</v>
+        <v>0.01903453158123636</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.118386672417536</v>
       </c>
       <c r="K22">
-        <v>1.460103239603256</v>
+        <v>0.04928250967552161</v>
       </c>
       <c r="L22">
-        <v>0.2503218078239371</v>
+        <v>0.04498031579385398</v>
       </c>
       <c r="M22">
-        <v>0.3489690774008025</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.474523524510559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.53317046494243</v>
+        <v>5.840784192759145</v>
       </c>
       <c r="C23">
-        <v>0.1323815662627936</v>
+        <v>1.622160460606892</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04977198647175918</v>
+        <v>1.939443379135255</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.845144562626757</v>
       </c>
       <c r="G23">
-        <v>0.8734828022391952</v>
+        <v>0.126847865926166</v>
       </c>
       <c r="H23">
-        <v>0.6021051084167226</v>
+        <v>0.01604491741655723</v>
       </c>
       <c r="I23">
-        <v>0.6522270736538971</v>
+        <v>0.01753857145034399</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1193388093913015</v>
       </c>
       <c r="K23">
-        <v>1.404835563204557</v>
+        <v>0.05242602813199682</v>
       </c>
       <c r="L23">
-        <v>0.2425478103328942</v>
+        <v>0.04371178453334323</v>
       </c>
       <c r="M23">
-        <v>0.3361639410359416</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.4705183900723569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.30826571463632</v>
+        <v>5.020523995303904</v>
       </c>
       <c r="C24">
-        <v>0.1179723551411911</v>
+        <v>1.407004909878253</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04739568992490817</v>
+        <v>1.681594582742804</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.49713746507534</v>
       </c>
       <c r="G24">
-        <v>0.8428676771724497</v>
+        <v>0.1162512476194166</v>
       </c>
       <c r="H24">
-        <v>0.6016687422987701</v>
+        <v>0.009771712894118774</v>
       </c>
       <c r="I24">
-        <v>0.6538654810434039</v>
+        <v>0.01272426664550785</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1229359982090301</v>
       </c>
       <c r="K24">
-        <v>1.197335737531972</v>
+        <v>0.06558684476022014</v>
       </c>
       <c r="L24">
-        <v>0.213714820248228</v>
+        <v>0.03883369753136812</v>
       </c>
       <c r="M24">
-        <v>0.2882455029077491</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.4551040680486125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.06924170834256</v>
+        <v>4.13563604641098</v>
       </c>
       <c r="C25">
-        <v>0.1026205903180681</v>
+        <v>1.176380318984286</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04506210422848689</v>
+        <v>1.404985498784555</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>2.128433999318744</v>
       </c>
       <c r="G25">
-        <v>0.8188447279907081</v>
+        <v>0.1075970789291745</v>
       </c>
       <c r="H25">
-        <v>0.6060496067444774</v>
+        <v>0.004572164327265704</v>
       </c>
       <c r="I25">
-        <v>0.6615748224351208</v>
+        <v>0.008402309227329319</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.128449986787686</v>
       </c>
       <c r="K25">
-        <v>0.9765706097439022</v>
+        <v>0.08199391032832581</v>
       </c>
       <c r="L25">
-        <v>0.1837438048029583</v>
+        <v>0.03366111058057619</v>
       </c>
       <c r="M25">
-        <v>0.2375861602694656</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4477589810425684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.483371748763375</v>
+        <v>3.481558513789651</v>
       </c>
       <c r="C2">
-        <v>0.9946896032074903</v>
+        <v>0.9687568307602135</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.198307551375521</v>
+        <v>1.189234886326005</v>
       </c>
       <c r="F2">
-        <v>1.86624533821805</v>
+        <v>1.874615974820941</v>
       </c>
       <c r="G2">
-        <v>0.105633732203593</v>
+        <v>0.09792809784146783</v>
       </c>
       <c r="H2">
-        <v>0.001894387242918683</v>
+        <v>0.001803776114455369</v>
       </c>
       <c r="I2">
-        <v>0.005270447037489134</v>
+        <v>0.005149029721010834</v>
       </c>
       <c r="J2">
-        <v>0.1350629149657792</v>
+        <v>0.1802197027236616</v>
       </c>
       <c r="K2">
-        <v>0.09574572606212906</v>
+        <v>0.09734363187030981</v>
       </c>
       <c r="L2">
-        <v>0.03007775886285557</v>
+        <v>0.07606747364144195</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01390470093254503</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03062051836992374</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.4570226711763041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.4797365325739378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.040230768695153</v>
+        <v>3.040054803163116</v>
       </c>
       <c r="C3">
-        <v>0.8794295780452615</v>
+        <v>0.8489364191298137</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.060717744395134</v>
+        <v>1.051252255742256</v>
       </c>
       <c r="F3">
-        <v>1.687999582618204</v>
+        <v>1.697854337585923</v>
       </c>
       <c r="G3">
-        <v>0.1040157100900636</v>
+        <v>0.09603427841018686</v>
       </c>
       <c r="H3">
-        <v>0.0006990420850638834</v>
+        <v>0.0006600176798736701</v>
       </c>
       <c r="I3">
-        <v>0.003752525435001708</v>
+        <v>0.003811970472437309</v>
       </c>
       <c r="J3">
-        <v>0.1394950423585612</v>
+        <v>0.1836439773390524</v>
       </c>
       <c r="K3">
-        <v>0.1060523089373921</v>
+        <v>0.1067448558311896</v>
       </c>
       <c r="L3">
-        <v>0.02753941377483038</v>
+        <v>0.08023613184531841</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01782655618426432</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.02807632918413816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.4625735164810152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.4859730895347525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.767555839848001</v>
+        <v>2.768297220537988</v>
       </c>
       <c r="C4">
-        <v>0.8090476531602633</v>
+        <v>0.7759711522013788</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9763649524569473</v>
+        <v>0.966730883273982</v>
       </c>
       <c r="F4">
-        <v>1.579384233506715</v>
+        <v>1.590025976560284</v>
       </c>
       <c r="G4">
-        <v>0.1034607473091675</v>
+        <v>0.09528826802363355</v>
       </c>
       <c r="H4">
-        <v>0.0002425191850472519</v>
+        <v>0.0002254711926248376</v>
       </c>
       <c r="I4">
-        <v>0.002959979186005768</v>
+        <v>0.003108673144120999</v>
       </c>
       <c r="J4">
-        <v>0.1425135152118777</v>
+        <v>0.1858932289363402</v>
       </c>
       <c r="K4">
-        <v>0.1128179357028851</v>
+        <v>0.1129050539813103</v>
       </c>
       <c r="L4">
-        <v>0.02597228415254715</v>
+        <v>0.08320716053443</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02062420898799644</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.02650285975476496</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.4675266827102789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.4910266836026054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.656255595170705</v>
+        <v>2.657351440376146</v>
       </c>
       <c r="C5">
-        <v>0.7817610744094736</v>
+        <v>0.7476249490337352</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9424054184271995</v>
+        <v>0.9327073898915899</v>
       </c>
       <c r="F5">
-        <v>1.534807904669279</v>
+        <v>1.545752841672751</v>
       </c>
       <c r="G5">
-        <v>0.1030851344733179</v>
+        <v>0.09483084750553417</v>
       </c>
       <c r="H5">
-        <v>0.0001219795519467048</v>
+        <v>0.0001116412460449023</v>
       </c>
       <c r="I5">
-        <v>0.002725492569715549</v>
+        <v>0.002918383327447316</v>
       </c>
       <c r="J5">
-        <v>0.1436752051735581</v>
+        <v>0.1866972166979473</v>
       </c>
       <c r="K5">
-        <v>0.1156714681396016</v>
+        <v>0.115484679994557</v>
       </c>
       <c r="L5">
-        <v>0.02531118927737452</v>
+        <v>0.08445619891242462</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02190362302933835</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.02583844438554728</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.4690831647031288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.4925388002872637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.637735057107932</v>
+        <v>2.638888130733903</v>
       </c>
       <c r="C6">
-        <v>0.7788355883893132</v>
+        <v>0.7444510121711403</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9372487847367665</v>
+        <v>0.9275243355356366</v>
       </c>
       <c r="F6">
-        <v>1.526805509401598</v>
+        <v>1.537814579199392</v>
       </c>
       <c r="G6">
-        <v>0.1027205439548027</v>
+        <v>0.09445491856663679</v>
       </c>
       <c r="H6">
-        <v>0.0001057046228503111</v>
+        <v>9.63533508058223E-05</v>
       </c>
       <c r="I6">
-        <v>0.002764541964273448</v>
+        <v>0.002981656607170535</v>
       </c>
       <c r="J6">
-        <v>0.1437015072667585</v>
+        <v>0.1866520938237528</v>
       </c>
       <c r="K6">
-        <v>0.1161420877049384</v>
+        <v>0.1158902770924803</v>
       </c>
       <c r="L6">
-        <v>0.02517739332640012</v>
+        <v>0.08459193372140383</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02217508174398386</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.02570400256874628</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.4683516874570799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.4917861770821119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.765975664952009</v>
+        <v>2.766678839310316</v>
       </c>
       <c r="C7">
-        <v>0.8130618214399874</v>
+        <v>0.779161542441301</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9772233934233583</v>
+        <v>0.9682950911061283</v>
       </c>
       <c r="F7">
-        <v>1.577112994630724</v>
+        <v>1.58681757398692</v>
       </c>
       <c r="G7">
-        <v>0.102613953838631</v>
+        <v>0.09590710714213913</v>
       </c>
       <c r="H7">
-        <v>0.0002401939250606944</v>
+        <v>0.0002227271712544887</v>
       </c>
       <c r="I7">
-        <v>0.003150334450557679</v>
+        <v>0.003340222493919853</v>
       </c>
       <c r="J7">
-        <v>0.1420637039716866</v>
+        <v>0.1830498004410828</v>
       </c>
       <c r="K7">
-        <v>0.1128340409337394</v>
+        <v>0.1128591453362382</v>
       </c>
       <c r="L7">
-        <v>0.02589804949422181</v>
+        <v>0.08296719420887033</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02082358189362843</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.02639075004536018</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.4647878409639432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.4866765403420317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.33058571127151</v>
+        <v>3.329216751337356</v>
       </c>
       <c r="C8">
-        <v>0.9607221875575931</v>
+        <v>0.9308880651175855</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.152585378716452</v>
+        <v>1.145829721840855</v>
       </c>
       <c r="F8">
-        <v>1.802388560977462</v>
+        <v>1.808076458489552</v>
       </c>
       <c r="G8">
-        <v>0.1038730116432518</v>
+        <v>0.1009831927587683</v>
       </c>
       <c r="H8">
-        <v>0.001420834024806306</v>
+        <v>0.0013461878082901</v>
       </c>
       <c r="I8">
-        <v>0.004948252313244694</v>
+        <v>0.004935118897238411</v>
       </c>
       <c r="J8">
-        <v>0.1359192220491963</v>
+        <v>0.1731839586105046</v>
       </c>
       <c r="K8">
-        <v>0.09919880598758368</v>
+        <v>0.1004505553563646</v>
       </c>
       <c r="L8">
-        <v>0.0291162248273249</v>
+        <v>0.07711662284009169</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01541239031580144</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.02953221395688033</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.4549804656938079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.4727883181769812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.433946221219912</v>
+        <v>4.42780948785628</v>
       </c>
       <c r="C9">
-        <v>1.245815271461254</v>
+        <v>1.22816234461186</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.495608152393515</v>
+        <v>1.491013069399798</v>
       </c>
       <c r="F9">
-        <v>2.25485745199019</v>
+        <v>2.255126048990817</v>
       </c>
       <c r="G9">
-        <v>0.1116579355985792</v>
+        <v>0.1107003796441859</v>
       </c>
       <c r="H9">
-        <v>0.006135385216882616</v>
+        <v>0.005863781744489538</v>
       </c>
       <c r="I9">
-        <v>0.009421821872224179</v>
+        <v>0.008752682288142744</v>
       </c>
       <c r="J9">
-        <v>0.1271966324927334</v>
+        <v>0.1640889625763862</v>
       </c>
       <c r="K9">
-        <v>0.07614563527180351</v>
+        <v>0.07946061120670889</v>
       </c>
       <c r="L9">
-        <v>0.03551684767801966</v>
+        <v>0.06936192297953947</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.007666287789378945</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.03589463830216211</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.453930619782156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.4667718646287824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.242749982542591</v>
+        <v>5.232162116109407</v>
       </c>
       <c r="C10">
-        <v>1.457972062444981</v>
+        <v>1.445477682005674</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.701479567083013</v>
+        <v>1.702975501741221</v>
       </c>
       <c r="F10">
-        <v>2.539882647666872</v>
+        <v>2.530178079993476</v>
       </c>
       <c r="G10">
-        <v>0.1173798363764078</v>
+        <v>0.1267287598006206</v>
       </c>
       <c r="H10">
-        <v>0.01109795019730075</v>
+        <v>0.01061037037204837</v>
       </c>
       <c r="I10">
-        <v>0.01369132000851714</v>
+        <v>0.01238108892470891</v>
       </c>
       <c r="J10">
-        <v>0.12113880753693</v>
+        <v>0.1454266336694197</v>
       </c>
       <c r="K10">
-        <v>0.06199898768736389</v>
+        <v>0.06667622766133885</v>
       </c>
       <c r="L10">
-        <v>0.03842328448844157</v>
+        <v>0.06587917017064093</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.004138498119849343</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.03858762735835697</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.4538589601432648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.4530476654213089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.606580139202663</v>
+        <v>5.593809853958533</v>
       </c>
       <c r="C11">
-        <v>1.542631676416363</v>
+        <v>1.517152502812394</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.39864854131217</v>
+        <v>1.406598801427492</v>
       </c>
       <c r="F11">
-        <v>2.223736637751671</v>
+        <v>2.205007234587129</v>
       </c>
       <c r="G11">
-        <v>0.09924268271258541</v>
+        <v>0.1282545919248648</v>
       </c>
       <c r="H11">
-        <v>0.02883956118347442</v>
+        <v>0.02830785610726849</v>
       </c>
       <c r="I11">
-        <v>0.01563236163122905</v>
+        <v>0.01410127053266841</v>
       </c>
       <c r="J11">
-        <v>0.108241032919004</v>
+        <v>0.1165244522758151</v>
       </c>
       <c r="K11">
-        <v>0.0590482219065871</v>
+        <v>0.06496967756653937</v>
       </c>
       <c r="L11">
-        <v>0.03201681609192342</v>
+        <v>0.06652968931585068</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.003551409736618716</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.03254435865405991</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.3885542349202922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.3741101152704971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.742814746121837</v>
+        <v>5.729340831926777</v>
       </c>
       <c r="C12">
-        <v>1.561384940984624</v>
+        <v>1.526123989621738</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.1269032985807</v>
+        <v>1.135604917954865</v>
       </c>
       <c r="F12">
-        <v>1.918662449957282</v>
+        <v>1.898565336344674</v>
       </c>
       <c r="G12">
-        <v>0.08471246570006485</v>
+        <v>0.1215035565453348</v>
       </c>
       <c r="H12">
-        <v>0.06632945798386913</v>
+        <v>0.06581134881989925</v>
       </c>
       <c r="I12">
-        <v>0.01599857109499414</v>
+        <v>0.0143654704091567</v>
       </c>
       <c r="J12">
-        <v>0.09953509858036824</v>
+        <v>0.1063998658557566</v>
       </c>
       <c r="K12">
-        <v>0.06019671738443133</v>
+        <v>0.06684482908564071</v>
       </c>
       <c r="L12">
-        <v>0.03687367186525492</v>
+        <v>0.06806642577194566</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.003883501198429951</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.03807162520969598</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.339553828219735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.3227296965386159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.710343714765088</v>
+        <v>5.697412433933891</v>
       </c>
       <c r="C13">
-        <v>1.537328688529499</v>
+        <v>1.495730759269236</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8668169480220342</v>
+        <v>0.871566871406003</v>
       </c>
       <c r="F13">
-        <v>1.603550797528996</v>
+        <v>1.588894635953096</v>
       </c>
       <c r="G13">
-        <v>0.07071003382148788</v>
+        <v>0.1032889049087586</v>
       </c>
       <c r="H13">
-        <v>0.1205581986913273</v>
+        <v>0.1200993808544553</v>
       </c>
       <c r="I13">
-        <v>0.01543224546137356</v>
+        <v>0.01388329448580095</v>
       </c>
       <c r="J13">
-        <v>0.09275559865616145</v>
+        <v>0.1054020888639009</v>
       </c>
       <c r="K13">
-        <v>0.06434793910053926</v>
+        <v>0.07071367077848301</v>
       </c>
       <c r="L13">
-        <v>0.05035044237658681</v>
+        <v>0.06960511503934974</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.004893146311523822</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05197027633824902</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.2956155271758973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.2863524003444411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.611129744271352</v>
+        <v>5.599119674685028</v>
       </c>
       <c r="C14">
-        <v>1.502546240578056</v>
+        <v>1.457969545331025</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6957605837088181</v>
+        <v>0.6965174723793126</v>
       </c>
       <c r="F14">
-        <v>1.382796677155596</v>
+        <v>1.374140516878612</v>
       </c>
       <c r="G14">
-        <v>0.06119591981044437</v>
+        <v>0.08643397811270148</v>
       </c>
       <c r="H14">
-        <v>0.1687761299089914</v>
+        <v>0.1683737804594898</v>
       </c>
       <c r="I14">
-        <v>0.01469994093044935</v>
+        <v>0.01330515094397189</v>
       </c>
       <c r="J14">
-        <v>0.0888667853937406</v>
+        <v>0.1075281836499364</v>
       </c>
       <c r="K14">
-        <v>0.06876255248955054</v>
+        <v>0.07427456143948596</v>
       </c>
       <c r="L14">
-        <v>0.06496531127949012</v>
+        <v>0.07057028892482009</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.00598990873487093</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06650977328447283</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.2672212807145726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.2665309632808999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.550953204616121</v>
+        <v>5.539421046761674</v>
       </c>
       <c r="C15">
-        <v>1.486891995175142</v>
+        <v>1.442144349028581</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6535166842988218</v>
+        <v>0.6527573767685766</v>
       </c>
       <c r="F15">
-        <v>1.324463522038798</v>
+        <v>1.318239044502079</v>
       </c>
       <c r="G15">
-        <v>0.05868713034323392</v>
+        <v>0.08038803276095052</v>
       </c>
       <c r="H15">
-        <v>0.1808749836261683</v>
+        <v>0.1804959943371358</v>
       </c>
       <c r="I15">
-        <v>0.01442226868928476</v>
+        <v>0.01312548719595075</v>
       </c>
       <c r="J15">
-        <v>0.08817750333658481</v>
+        <v>0.1093660108364922</v>
       </c>
       <c r="K15">
-        <v>0.07048353254435824</v>
+        <v>0.07552659781742221</v>
       </c>
       <c r="L15">
-        <v>0.06895185676985705</v>
+        <v>0.07075444292574318</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.006428510853401903</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07033097342689132</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.2604192079166268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.263284879770481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.208375431930108</v>
+        <v>5.199167574216062</v>
       </c>
       <c r="C16">
-        <v>1.403248526165441</v>
+        <v>1.363479503770009</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6265260648936675</v>
+        <v>0.6205708325313779</v>
       </c>
       <c r="F16">
-        <v>1.273707040210397</v>
+        <v>1.276180705841952</v>
       </c>
       <c r="G16">
-        <v>0.05839184049782986</v>
+        <v>0.06591910832397829</v>
       </c>
       <c r="H16">
-        <v>0.1665352277088488</v>
+        <v>0.1662519254624186</v>
       </c>
       <c r="I16">
-        <v>0.01272484676040797</v>
+        <v>0.01179605626013203</v>
       </c>
       <c r="J16">
-        <v>0.09165529448191378</v>
+        <v>0.1242800424783042</v>
       </c>
       <c r="K16">
-        <v>0.07498777172293458</v>
+        <v>0.07815639185377421</v>
       </c>
       <c r="L16">
-        <v>0.06470699308198746</v>
+        <v>0.07005102650749784</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.00762370379792543</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06517229693506721</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.2668812273674206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.2827242491555637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.998963426238788</v>
+        <v>4.990948979659095</v>
       </c>
       <c r="C17">
-        <v>1.357899209357811</v>
+        <v>1.322469226456121</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6928262879391625</v>
+        <v>0.6848853085629472</v>
       </c>
       <c r="F17">
-        <v>1.348809680447658</v>
+        <v>1.354453670823716</v>
       </c>
       <c r="G17">
-        <v>0.06316967741202717</v>
+        <v>0.06493448258320456</v>
       </c>
       <c r="H17">
-        <v>0.128088167321124</v>
+        <v>0.1278452534796344</v>
       </c>
       <c r="I17">
-        <v>0.01185258551107005</v>
+        <v>0.01111197142489484</v>
       </c>
       <c r="J17">
-        <v>0.09640216159809967</v>
+        <v>0.1352361094687069</v>
       </c>
       <c r="K17">
-        <v>0.076183756743335</v>
+        <v>0.07881007421289876</v>
       </c>
       <c r="L17">
-        <v>0.05280099297192109</v>
+        <v>0.06944465995397309</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.008005462306897471</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05300456095401529</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.2868437464111082</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.3075383769168667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.879748081249545</v>
+        <v>4.872232971821234</v>
       </c>
       <c r="C18">
-        <v>1.336108001089826</v>
+        <v>1.306518247546535</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8614193287726124</v>
+        <v>0.8529257953890976</v>
       </c>
       <c r="F18">
-        <v>1.552426711153814</v>
+        <v>1.558502326341468</v>
       </c>
       <c r="G18">
-        <v>0.07370550185005698</v>
+        <v>0.07271201560512353</v>
       </c>
       <c r="H18">
-        <v>0.07544728614915641</v>
+        <v>0.07520724025040693</v>
       </c>
       <c r="I18">
-        <v>0.01131067584319023</v>
+        <v>0.01059533552152292</v>
       </c>
       <c r="J18">
-        <v>0.1031668820077734</v>
+        <v>0.1448456812146226</v>
       </c>
       <c r="K18">
-        <v>0.07472310714655794</v>
+        <v>0.07757597255093351</v>
       </c>
       <c r="L18">
-        <v>0.03797143709179451</v>
+        <v>0.0687042743407833</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.007563791539808129</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03827425572545451</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.3233060091003281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.3448569137488064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.841200208675559</v>
+        <v>4.833627234141829</v>
       </c>
       <c r="C19">
-        <v>1.343296231889099</v>
+        <v>1.320565567749327</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.126307057558762</v>
+        <v>1.11836610516734</v>
       </c>
       <c r="F19">
-        <v>1.860380043928359</v>
+        <v>1.864994755772187</v>
       </c>
       <c r="G19">
-        <v>0.08768560114385338</v>
+        <v>0.08536169368022684</v>
       </c>
       <c r="H19">
-        <v>0.03138507870644958</v>
+        <v>0.03111255281555714</v>
       </c>
       <c r="I19">
-        <v>0.01154309462015046</v>
+        <v>0.01083931995662635</v>
       </c>
       <c r="J19">
-        <v>0.1106731934420253</v>
+        <v>0.1529656368159777</v>
       </c>
       <c r="K19">
-        <v>0.07221364116121531</v>
+        <v>0.07555589316555622</v>
       </c>
       <c r="L19">
-        <v>0.02948258347781252</v>
+        <v>0.06804988835801584</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.006778292795745156</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.02995286879988246</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.3686822754158356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.3883405772419621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.030179397637937</v>
+        <v>5.020983987951297</v>
       </c>
       <c r="C20">
-        <v>1.4161431878195</v>
+        <v>1.404025235715835</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.649465149126073</v>
+        <v>1.646434026035166</v>
       </c>
       <c r="F20">
-        <v>2.457243475093037</v>
+        <v>2.45394028615847</v>
       </c>
       <c r="G20">
-        <v>0.1130258957730987</v>
+        <v>0.1142287540531512</v>
       </c>
       <c r="H20">
-        <v>0.009637641739879577</v>
+        <v>0.00922191088438451</v>
       </c>
       <c r="I20">
-        <v>0.01313633377265511</v>
+        <v>0.0121917867191268</v>
       </c>
       <c r="J20">
-        <v>0.1211724735580617</v>
+        <v>0.156021037590854</v>
       </c>
       <c r="K20">
-        <v>0.06567706775768256</v>
+        <v>0.0699199153033403</v>
       </c>
       <c r="L20">
-        <v>0.03737506188177875</v>
+        <v>0.0666289644215512</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.00496969260335467</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.03772956519165938</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.4445736877684539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.4532397873095277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.651398210394746</v>
+        <v>5.637576955640668</v>
       </c>
       <c r="C21">
-        <v>1.580504555805703</v>
+        <v>1.562071632636332</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.882212542333832</v>
+        <v>1.899628028592304</v>
       </c>
       <c r="F21">
-        <v>2.761382723932996</v>
+        <v>2.730245185945421</v>
       </c>
       <c r="G21">
-        <v>0.1227512565311386</v>
+        <v>0.1627002049602311</v>
       </c>
       <c r="H21">
-        <v>0.01447601839167223</v>
+        <v>0.01379597713891789</v>
       </c>
       <c r="I21">
-        <v>0.01673756392312065</v>
+        <v>0.01507741878553581</v>
       </c>
       <c r="J21">
-        <v>0.1192676453207113</v>
+        <v>0.1151155734450562</v>
       </c>
       <c r="K21">
-        <v>0.05539375972962812</v>
+        <v>0.06135640984523416</v>
       </c>
       <c r="L21">
-        <v>0.0424556422322766</v>
+        <v>0.06507335805494474</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.002849588301577666</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.04183836661063722</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.4615750094046547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.4298075044420671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.057408932522492</v>
+        <v>6.040343345452129</v>
       </c>
       <c r="C22">
-        <v>1.681547320809329</v>
+        <v>1.657660313922463</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.008466333300277</v>
+        <v>2.040876938622233</v>
       </c>
       <c r="F22">
-        <v>2.937154344227793</v>
+        <v>2.885924354008154</v>
       </c>
       <c r="G22">
-        <v>0.1296189025194749</v>
+        <v>0.2009586480734527</v>
       </c>
       <c r="H22">
-        <v>0.01792005918681894</v>
+        <v>0.01704616402117143</v>
       </c>
       <c r="I22">
-        <v>0.01903453158123636</v>
+        <v>0.01678972377654997</v>
       </c>
       <c r="J22">
-        <v>0.118386672417536</v>
+        <v>0.09788359180229644</v>
       </c>
       <c r="K22">
-        <v>0.04928250967552161</v>
+        <v>0.056524921477207</v>
       </c>
       <c r="L22">
-        <v>0.04498031579385398</v>
+        <v>0.06472827122503233</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.001806559434201938</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.04366241479762678</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.474523524510559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.4140217414319665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.840784192759145</v>
+        <v>5.82557203641295</v>
       </c>
       <c r="C23">
-        <v>1.622160460606892</v>
+        <v>1.603082479001216</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.939443379135255</v>
+        <v>1.961691843655302</v>
       </c>
       <c r="F23">
-        <v>2.845144562626757</v>
+        <v>2.807305141841937</v>
       </c>
       <c r="G23">
-        <v>0.126847865926166</v>
+        <v>0.1764831620930991</v>
       </c>
       <c r="H23">
-        <v>0.01604491741655723</v>
+        <v>0.01528369441204469</v>
       </c>
       <c r="I23">
-        <v>0.01753857145034399</v>
+        <v>0.01556055183187066</v>
       </c>
       <c r="J23">
-        <v>0.1193388093913015</v>
+        <v>0.1085015096879154</v>
       </c>
       <c r="K23">
-        <v>0.05242602813199682</v>
+        <v>0.05878976170776706</v>
       </c>
       <c r="L23">
-        <v>0.04371178453334323</v>
+        <v>0.06470123025993768</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.002314873489810521</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.04286506212505969</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.4705183900723569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.4289523462449409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.020523995303904</v>
+        <v>5.011349121697549</v>
       </c>
       <c r="C24">
-        <v>1.407004909878253</v>
+        <v>1.395918905175563</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.681594582742804</v>
+        <v>1.678693768036339</v>
       </c>
       <c r="F24">
-        <v>2.49713746507534</v>
+        <v>2.493633732997353</v>
       </c>
       <c r="G24">
-        <v>0.1162512476194166</v>
+        <v>0.1170592388829377</v>
       </c>
       <c r="H24">
-        <v>0.009771712894118774</v>
+        <v>0.009350989156889714</v>
       </c>
       <c r="I24">
-        <v>0.01272426664550785</v>
+        <v>0.0116802656826156</v>
       </c>
       <c r="J24">
-        <v>0.1229359982090301</v>
+        <v>0.1580323501827081</v>
       </c>
       <c r="K24">
-        <v>0.06558684476022014</v>
+        <v>0.06981899735229824</v>
       </c>
       <c r="L24">
-        <v>0.03883369753136812</v>
+        <v>0.0665948871742037</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.004932744273273171</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.03916620510588587</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.4551040680486125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.4634825370349915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.13563604641098</v>
+        <v>4.130964202686357</v>
       </c>
       <c r="C25">
-        <v>1.176380318984286</v>
+        <v>1.155860383847255</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.404985498784555</v>
+        <v>1.398573636679131</v>
       </c>
       <c r="F25">
-        <v>2.128433999318744</v>
+        <v>2.131791078827519</v>
       </c>
       <c r="G25">
-        <v>0.1075970789291745</v>
+        <v>0.1040292840926753</v>
       </c>
       <c r="H25">
-        <v>0.004572164327265704</v>
+        <v>0.004367314004947609</v>
       </c>
       <c r="I25">
-        <v>0.008402309227329319</v>
+        <v>0.008028837908423903</v>
       </c>
       <c r="J25">
-        <v>0.128449986787686</v>
+        <v>0.1687352781174738</v>
       </c>
       <c r="K25">
-        <v>0.08199391032832581</v>
+        <v>0.08476331512469581</v>
       </c>
       <c r="L25">
-        <v>0.03366111058057619</v>
+        <v>0.07103743458375222</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.009461698282071662</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.03410972020694913</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.4477589810425684</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.4645795125269672</v>
       </c>
     </row>
   </sheetData>
